--- a/static/excels/(열려라국회) 21대 국회 본회의 출석부.xlsx
+++ b/static/excels/(열려라국회) 21대 국회 본회의 출석부.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College_Data\2-1_semester\OpenSource_basic_project\Team Project\Project Folder\myproject\static\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F41BD17-10EF-412B-B12C-D1610CE350D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72462DF5-7FD3-45A6-AB8B-E43E279EAA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="687">
   <si>
     <r>
       <rPr>
@@ -509,9 +509,6 @@
     <t>심상정</t>
   </si>
   <si>
-    <t>녹색정의당</t>
-  </si>
-  <si>
     <t>경기 고양시갑</t>
   </si>
   <si>
@@ -1712,9 +1709,6 @@
     <t>윤영덕</t>
   </si>
   <si>
-    <t>더불어민주연합</t>
-  </si>
-  <si>
     <t>광주 동구남구갑</t>
   </si>
   <si>
@@ -2148,6 +2142,38 @@
   </si>
   <si>
     <t>소속정당</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>정의당</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>새누리당</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민의당</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>더불어민주당</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민의힘</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>무소속</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운미래</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본소득당</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -2155,7 +2181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2281,6 +2307,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -2445,7 +2478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2611,6 +2644,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3098,8 +3137,8 @@
   <dimension ref="A1:O327"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="3" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C296" sqref="C296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3164,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>3</v>
@@ -3245,7 +3284,7 @@
     <row r="5" spans="1:15" ht="22.5" customHeight="1">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>15</v>
@@ -3254,13 +3293,13 @@
         <v>44</v>
       </c>
       <c r="E5" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>164</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>165</v>
       </c>
       <c r="H5" s="25">
         <v>6</v>
@@ -3286,7 +3325,7 @@
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
       <c r="A6" s="22"/>
       <c r="B6" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>29</v>
@@ -3295,13 +3334,13 @@
         <v>44</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H6" s="25">
         <v>0.6</v>
@@ -3327,7 +3366,7 @@
     <row r="7" spans="1:15" ht="22.5" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>15</v>
@@ -3336,13 +3375,13 @@
         <v>44</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H7" s="25">
         <v>4.2</v>
@@ -3368,7 +3407,7 @@
     <row r="8" spans="1:15" ht="22.5" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>29</v>
@@ -3405,7 +3444,7 @@
     <row r="9" spans="1:15" ht="22.5" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>29</v>
@@ -3414,7 +3453,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>74</v>
@@ -3444,7 +3483,7 @@
     <row r="10" spans="1:15" ht="22.5" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>29</v>
@@ -3453,13 +3492,13 @@
         <v>44</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H10" s="25">
         <v>1.2</v>
@@ -3528,10 +3567,10 @@
     <row r="12" spans="1:15" ht="22.5" customHeight="1">
       <c r="A12" s="22"/>
       <c r="B12" s="23" t="s">
-        <v>598</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>134</v>
+        <v>596</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>679</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>44</v>
@@ -3543,7 +3582,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H12" s="25">
         <v>0</v>
@@ -3569,7 +3608,7 @@
     <row r="13" spans="1:15" ht="22.5" customHeight="1">
       <c r="A13" s="22"/>
       <c r="B13" s="23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>29</v>
@@ -3578,13 +3617,13 @@
         <v>44</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H13" s="25">
         <v>0.6</v>
@@ -3610,7 +3649,7 @@
     <row r="14" spans="1:15" ht="22.5" customHeight="1">
       <c r="A14" s="22"/>
       <c r="B14" s="23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>29</v>
@@ -3619,13 +3658,13 @@
         <v>25</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H14" s="25">
         <v>0.6</v>
@@ -3651,7 +3690,7 @@
     <row r="15" spans="1:15" ht="22.5" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>29</v>
@@ -3660,13 +3699,13 @@
         <v>44</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H15" s="25">
         <v>1.2</v>
@@ -3692,7 +3731,7 @@
     <row r="16" spans="1:15" ht="22.5" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>29</v>
@@ -3701,13 +3740,13 @@
         <v>44</v>
       </c>
       <c r="E16" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>465</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>466</v>
       </c>
       <c r="H16" s="25">
         <v>0.6</v>
@@ -3733,7 +3772,7 @@
     <row r="17" spans="1:15" ht="22.5" customHeight="1">
       <c r="A17" s="22"/>
       <c r="B17" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>29</v>
@@ -3742,13 +3781,13 @@
         <v>25</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H17" s="25">
         <v>1.8</v>
@@ -3774,7 +3813,7 @@
     <row r="18" spans="1:15" ht="22.5" customHeight="1">
       <c r="A18" s="22"/>
       <c r="B18" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>15</v>
@@ -3783,13 +3822,13 @@
         <v>44</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H18" s="25">
         <v>4.2</v>
@@ -3815,7 +3854,7 @@
     <row r="19" spans="1:15" ht="22.5" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>15</v>
@@ -3824,13 +3863,13 @@
         <v>44</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H19" s="25">
         <v>6</v>
@@ -3940,7 +3979,7 @@
     <row r="22" spans="1:15" ht="22.5" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>29</v>
@@ -3979,7 +4018,7 @@
     <row r="23" spans="1:15" ht="22.5" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>29</v>
@@ -3988,13 +4027,13 @@
         <v>25</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H23" s="25">
         <v>1.8</v>
@@ -4015,14 +4054,14 @@
         <v>0</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O23" s="30"/>
     </row>
     <row r="24" spans="1:15" ht="22.5" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>29</v>
@@ -4031,7 +4070,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>94</v>
@@ -4061,7 +4100,7 @@
     <row r="25" spans="1:15" ht="22.5" customHeight="1">
       <c r="A25" s="22"/>
       <c r="B25" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>29</v>
@@ -4100,7 +4139,7 @@
     <row r="26" spans="1:15" ht="22.5" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>29</v>
@@ -4109,13 +4148,13 @@
         <v>21</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H26" s="25">
         <v>1.2</v>
@@ -4141,7 +4180,7 @@
     <row r="27" spans="1:15" ht="22.5" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>29</v>
@@ -4150,13 +4189,13 @@
         <v>25</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H27" s="25">
         <v>0.6</v>
@@ -4182,7 +4221,7 @@
     <row r="28" spans="1:15" ht="22.5" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="23" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>15</v>
@@ -4214,14 +4253,14 @@
         <v>0</v>
       </c>
       <c r="N28" s="29" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="O28" s="30"/>
     </row>
     <row r="29" spans="1:15" ht="22.5" customHeight="1">
       <c r="A29" s="22"/>
       <c r="B29" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>15</v>
@@ -4230,13 +4269,13 @@
         <v>16</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F29" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H29" s="25">
         <v>4.8</v>
@@ -4262,16 +4301,16 @@
     <row r="30" spans="1:15" ht="22.5" customHeight="1">
       <c r="A30" s="22"/>
       <c r="B30" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>682</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="26" t="s">
         <v>471</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>472</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="28"/>
@@ -4299,7 +4338,7 @@
     <row r="31" spans="1:15" ht="22.5" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>15</v>
@@ -4308,13 +4347,13 @@
         <v>21</v>
       </c>
       <c r="E31" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="28" t="s">
         <v>254</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>255</v>
       </c>
       <c r="H31" s="25">
         <v>4.2</v>
@@ -4340,7 +4379,7 @@
     <row r="32" spans="1:15" ht="22.5" customHeight="1">
       <c r="A32" s="22"/>
       <c r="B32" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>29</v>
@@ -4381,7 +4420,7 @@
     <row r="33" spans="1:15" ht="22.5" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>15</v>
@@ -4390,13 +4429,13 @@
         <v>44</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F33" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H33" s="25">
         <v>6</v>
@@ -4422,7 +4461,7 @@
     <row r="34" spans="1:15" ht="22.5" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>29</v>
@@ -4431,7 +4470,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F34" s="27" t="s">
         <v>31</v>
@@ -4461,7 +4500,7 @@
     <row r="35" spans="1:15" ht="22.5" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>29</v>
@@ -4470,13 +4509,13 @@
         <v>21</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F35" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H35" s="25">
         <v>1.8</v>
@@ -4502,7 +4541,7 @@
     <row r="36" spans="1:15" ht="22.5" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>29</v>
@@ -4511,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>94</v>
@@ -4541,7 +4580,7 @@
     <row r="37" spans="1:15" ht="22.5" customHeight="1">
       <c r="A37" s="22"/>
       <c r="B37" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>29</v>
@@ -4550,13 +4589,13 @@
         <v>25</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F37" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H37" s="25">
         <v>0.6</v>
@@ -4630,13 +4669,13 @@
         <v>25</v>
       </c>
       <c r="E39" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="28" t="s">
         <v>477</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>478</v>
       </c>
       <c r="H39" s="25">
         <v>0.6</v>
@@ -4662,7 +4701,7 @@
     <row r="40" spans="1:15" ht="22.5" customHeight="1">
       <c r="A40" s="22"/>
       <c r="B40" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>29</v>
@@ -4677,7 +4716,7 @@
         <v>18</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H40" s="25">
         <v>0.6</v>
@@ -4703,7 +4742,7 @@
     <row r="41" spans="1:15" ht="22.5" customHeight="1">
       <c r="A41" s="22"/>
       <c r="B41" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>15</v>
@@ -4712,13 +4751,13 @@
         <v>21</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F41" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H41" s="25">
         <v>6.6</v>
@@ -4744,7 +4783,7 @@
     <row r="42" spans="1:15" ht="22.5" customHeight="1">
       <c r="A42" s="22"/>
       <c r="B42" s="23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>29</v>
@@ -4753,13 +4792,13 @@
         <v>16</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H42" s="25">
         <v>0.6</v>
@@ -4826,7 +4865,7 @@
     <row r="44" spans="1:15" ht="22.5" customHeight="1">
       <c r="A44" s="22"/>
       <c r="B44" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>15</v>
@@ -4835,13 +4874,13 @@
         <v>25</v>
       </c>
       <c r="E44" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="28" t="s">
         <v>188</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>189</v>
       </c>
       <c r="H44" s="25">
         <v>5.4</v>
@@ -4867,7 +4906,7 @@
     <row r="45" spans="1:15" ht="22.5" customHeight="1">
       <c r="A45" s="22"/>
       <c r="B45" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>29</v>
@@ -4876,13 +4915,13 @@
         <v>25</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H45" s="25">
         <v>3</v>
@@ -4908,7 +4947,7 @@
     <row r="46" spans="1:15" ht="22.5" customHeight="1">
       <c r="A46" s="22"/>
       <c r="B46" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>29</v>
@@ -4917,13 +4956,13 @@
         <v>25</v>
       </c>
       <c r="E46" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="28" t="s">
         <v>348</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>349</v>
       </c>
       <c r="H46" s="25">
         <v>1.8</v>
@@ -4949,7 +4988,7 @@
     <row r="47" spans="1:15" ht="22.5" customHeight="1">
       <c r="A47" s="22"/>
       <c r="B47" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>29</v>
@@ -4958,7 +4997,7 @@
         <v>44</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F47" s="27" t="s">
         <v>74</v>
@@ -4988,7 +5027,7 @@
     <row r="48" spans="1:15" ht="22.5" customHeight="1">
       <c r="A48" s="22"/>
       <c r="B48" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>29</v>
@@ -4997,13 +5036,13 @@
         <v>25</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H48" s="25">
         <v>2.4</v>
@@ -5029,7 +5068,7 @@
     <row r="49" spans="1:15" ht="22.5" customHeight="1">
       <c r="A49" s="22"/>
       <c r="B49" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>15</v>
@@ -5038,13 +5077,13 @@
         <v>44</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F49" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H49" s="25">
         <v>5.4</v>
@@ -5070,7 +5109,7 @@
     <row r="50" spans="1:15" ht="22.5" customHeight="1">
       <c r="A50" s="22"/>
       <c r="B50" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>29</v>
@@ -5079,13 +5118,13 @@
         <v>44</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F50" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H50" s="25">
         <v>0.6</v>
@@ -5111,7 +5150,7 @@
     <row r="51" spans="1:15" ht="22.5" customHeight="1">
       <c r="A51" s="22"/>
       <c r="B51" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>29</v>
@@ -5120,13 +5159,13 @@
         <v>44</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F51" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H51" s="25">
         <v>1.2</v>
@@ -5193,7 +5232,7 @@
     <row r="53" spans="1:15" ht="22.5" customHeight="1">
       <c r="A53" s="22"/>
       <c r="B53" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>15</v>
@@ -5202,13 +5241,13 @@
         <v>44</v>
       </c>
       <c r="E53" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="F53" s="27" t="s">
-        <v>146</v>
-      </c>
       <c r="G53" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H53" s="25">
         <v>6.6</v>
@@ -5234,22 +5273,22 @@
     <row r="54" spans="1:15" ht="22.5" customHeight="1">
       <c r="A54" s="22"/>
       <c r="B54" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>15</v>
+        <v>386</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>682</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H54" s="25">
         <v>1.2</v>
@@ -5275,22 +5314,22 @@
     <row r="55" spans="1:15" ht="22.5" customHeight="1">
       <c r="A55" s="22"/>
       <c r="B55" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>29</v>
+        <v>483</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>682</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F55" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H55" s="25">
         <v>0.6</v>
@@ -5316,7 +5355,7 @@
     <row r="56" spans="1:15" ht="22.5" customHeight="1">
       <c r="A56" s="22"/>
       <c r="B56" s="23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>29</v>
@@ -5357,7 +5396,7 @@
     <row r="57" spans="1:15" ht="22.5" customHeight="1">
       <c r="A57" s="22"/>
       <c r="B57" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C57" s="24" t="s">
         <v>15</v>
@@ -5394,7 +5433,7 @@
     <row r="58" spans="1:15" ht="22.5" customHeight="1">
       <c r="A58" s="22"/>
       <c r="B58" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>29</v>
@@ -5403,13 +5442,13 @@
         <v>44</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F58" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H58" s="25">
         <v>1.2</v>
@@ -5435,7 +5474,7 @@
     <row r="59" spans="1:15" ht="22.5" customHeight="1">
       <c r="A59" s="22"/>
       <c r="B59" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>15</v>
@@ -5444,7 +5483,7 @@
         <v>44</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F59" s="27" t="s">
         <v>74</v>
@@ -5474,7 +5513,7 @@
     <row r="60" spans="1:15" ht="22.5" customHeight="1">
       <c r="A60" s="22"/>
       <c r="B60" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>15</v>
@@ -5483,7 +5522,7 @@
         <v>44</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F60" s="27" t="s">
         <v>31</v>
@@ -5513,7 +5552,7 @@
     <row r="61" spans="1:15" ht="22.5" customHeight="1">
       <c r="A61" s="22"/>
       <c r="B61" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>29</v>
@@ -5522,13 +5561,13 @@
         <v>44</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H61" s="25">
         <v>0.6</v>
@@ -5554,7 +5593,7 @@
     <row r="62" spans="1:15" ht="22.5" customHeight="1">
       <c r="A62" s="22"/>
       <c r="B62" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>29</v>
@@ -5563,13 +5602,13 @@
         <v>25</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F62" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H62" s="25">
         <v>0.6</v>
@@ -5595,7 +5634,7 @@
     <row r="63" spans="1:15" ht="22.5" customHeight="1">
       <c r="A63" s="22"/>
       <c r="B63" s="23" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>15</v>
@@ -5627,14 +5666,14 @@
         <v>0</v>
       </c>
       <c r="N63" s="29" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="O63" s="30"/>
     </row>
     <row r="64" spans="1:15" ht="22.5" customHeight="1">
       <c r="A64" s="22"/>
       <c r="B64" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>29</v>
@@ -5668,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -5716,7 +5755,7 @@
     <row r="66" spans="1:15" ht="22.5" customHeight="1">
       <c r="A66" s="22"/>
       <c r="B66" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>29</v>
@@ -5725,13 +5764,13 @@
         <v>25</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F66" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H66" s="25">
         <v>3</v>
@@ -5757,22 +5796,22 @@
     <row r="67" spans="1:15" ht="22.5" customHeight="1">
       <c r="A67" s="22"/>
       <c r="B67" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>684</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="28" t="s">
         <v>217</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="28" t="s">
-        <v>218</v>
       </c>
       <c r="H67" s="25">
         <v>4.8</v>
@@ -5798,7 +5837,7 @@
     <row r="68" spans="1:15" ht="22.5" customHeight="1">
       <c r="A68" s="22"/>
       <c r="B68" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>29</v>
@@ -5807,13 +5846,13 @@
         <v>44</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F68" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H68" s="25">
         <v>1.2</v>
@@ -5839,16 +5878,16 @@
     <row r="69" spans="1:15" ht="22.5" customHeight="1">
       <c r="A69" s="22"/>
       <c r="B69" s="23" t="s">
-        <v>604</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>85</v>
+        <v>602</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>682</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F69" s="27" t="s">
         <v>31</v>
@@ -5878,7 +5917,7 @@
     <row r="70" spans="1:15" ht="22.5" customHeight="1">
       <c r="A70" s="22"/>
       <c r="B70" s="23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>29</v>
@@ -5887,13 +5926,13 @@
         <v>25</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H70" s="25">
         <v>0.6</v>
@@ -5919,7 +5958,7 @@
     <row r="71" spans="1:15" ht="22.5" customHeight="1">
       <c r="A71" s="22"/>
       <c r="B71" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>29</v>
@@ -5928,13 +5967,13 @@
         <v>16</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F71" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H71" s="25">
         <v>0.6</v>
@@ -6001,22 +6040,22 @@
     <row r="73" spans="1:15" ht="22.5" customHeight="1">
       <c r="A73" s="22"/>
       <c r="B73" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>15</v>
+        <v>245</v>
+      </c>
+      <c r="C73" s="56" t="s">
+        <v>680</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F73" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H73" s="25">
         <v>4.5</v>
@@ -6037,14 +6076,14 @@
         <v>0</v>
       </c>
       <c r="N73" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O73" s="30"/>
     </row>
     <row r="74" spans="1:15" ht="22.5" customHeight="1">
       <c r="A74" s="22"/>
       <c r="B74" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>29</v>
@@ -6053,13 +6092,13 @@
         <v>44</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F74" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H74" s="25">
         <v>3.7</v>
@@ -6087,7 +6126,7 @@
     <row r="75" spans="1:15" ht="22.5" customHeight="1">
       <c r="A75" s="22"/>
       <c r="B75" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C75" s="24" t="s">
         <v>29</v>
@@ -6096,7 +6135,7 @@
         <v>25</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F75" s="27" t="s">
         <v>74</v>
@@ -6126,7 +6165,7 @@
     <row r="76" spans="1:15" ht="22.5" customHeight="1">
       <c r="A76" s="22"/>
       <c r="B76" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C76" s="24" t="s">
         <v>15</v>
@@ -6135,13 +6174,13 @@
         <v>44</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F76" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H76" s="25">
         <v>6</v>
@@ -6167,7 +6206,7 @@
     <row r="77" spans="1:15" ht="22.5" customHeight="1">
       <c r="A77" s="22"/>
       <c r="B77" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C77" s="24" t="s">
         <v>29</v>
@@ -6206,7 +6245,7 @@
     <row r="78" spans="1:15" ht="22.5" customHeight="1">
       <c r="A78" s="22"/>
       <c r="B78" s="23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C78" s="24" t="s">
         <v>29</v>
@@ -6215,13 +6254,13 @@
         <v>44</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F78" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H78" s="25">
         <v>0.6</v>
@@ -6323,7 +6362,7 @@
     <row r="81" spans="1:15" ht="22.5" customHeight="1">
       <c r="A81" s="22"/>
       <c r="B81" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C81" s="24" t="s">
         <v>29</v>
@@ -6332,13 +6371,13 @@
         <v>21</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F81" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H81" s="25">
         <v>1.2</v>
@@ -6364,7 +6403,7 @@
     <row r="82" spans="1:15" ht="22.5" customHeight="1">
       <c r="A82" s="22"/>
       <c r="B82" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>15</v>
@@ -6398,14 +6437,14 @@
         <v>0</v>
       </c>
       <c r="N82" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O82" s="30"/>
     </row>
     <row r="83" spans="1:15" ht="22.5" customHeight="1">
       <c r="A83" s="22"/>
       <c r="B83" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>29</v>
@@ -6414,7 +6453,7 @@
         <v>16</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F83" s="27" t="s">
         <v>31</v>
@@ -6444,7 +6483,7 @@
     <row r="84" spans="1:15" ht="22.5" customHeight="1">
       <c r="A84" s="22"/>
       <c r="B84" s="23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>29</v>
@@ -6453,7 +6492,7 @@
         <v>21</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F84" s="27" t="s">
         <v>74</v>
@@ -6483,7 +6522,7 @@
     <row r="85" spans="1:15" ht="22.5" customHeight="1">
       <c r="A85" s="22"/>
       <c r="B85" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C85" s="24" t="s">
         <v>15</v>
@@ -6492,7 +6531,7 @@
         <v>25</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F85" s="27"/>
       <c r="G85" s="28"/>
@@ -6520,7 +6559,7 @@
     <row r="86" spans="1:15" ht="22.5" customHeight="1">
       <c r="A86" s="22"/>
       <c r="B86" s="23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>29</v>
@@ -6529,13 +6568,13 @@
         <v>25</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F86" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H86" s="25">
         <v>0.6</v>
@@ -6561,7 +6600,7 @@
     <row r="87" spans="1:15" ht="22.5" customHeight="1">
       <c r="A87" s="22"/>
       <c r="B87" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>29</v>
@@ -6570,13 +6609,13 @@
         <v>44</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F87" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H87" s="25">
         <v>1.8</v>
@@ -6602,7 +6641,7 @@
     <row r="88" spans="1:15" ht="22.5" customHeight="1">
       <c r="A88" s="22"/>
       <c r="B88" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C88" s="24" t="s">
         <v>29</v>
@@ -6611,13 +6650,13 @@
         <v>44</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F88" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H88" s="25">
         <v>0.6</v>
@@ -6643,7 +6682,7 @@
     <row r="89" spans="1:15" ht="22.5" customHeight="1">
       <c r="A89" s="22"/>
       <c r="B89" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>29</v>
@@ -6652,13 +6691,13 @@
         <v>44</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F89" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H89" s="25">
         <v>1.2</v>
@@ -6684,7 +6723,7 @@
     <row r="90" spans="1:15" ht="22.5" customHeight="1">
       <c r="A90" s="22"/>
       <c r="B90" s="23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C90" s="24" t="s">
         <v>29</v>
@@ -6693,13 +6732,13 @@
         <v>44</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F90" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G90" s="28" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H90" s="25">
         <v>0</v>
@@ -6725,7 +6764,7 @@
     <row r="91" spans="1:15" ht="22.5" customHeight="1">
       <c r="A91" s="22"/>
       <c r="B91" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C91" s="24" t="s">
         <v>29</v>
@@ -6734,13 +6773,13 @@
         <v>21</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F91" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H91" s="25">
         <v>3</v>
@@ -6766,7 +6805,7 @@
     <row r="92" spans="1:15" ht="22.5" customHeight="1">
       <c r="A92" s="22"/>
       <c r="B92" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C92" s="24" t="s">
         <v>29</v>
@@ -6775,7 +6814,7 @@
         <v>21</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F92" s="27" t="s">
         <v>74</v>
@@ -6842,7 +6881,7 @@
     <row r="94" spans="1:15" ht="22.5" customHeight="1">
       <c r="A94" s="22"/>
       <c r="B94" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="24" t="s">
         <v>15</v>
@@ -6851,13 +6890,13 @@
         <v>21</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F94" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H94" s="25">
         <v>4.2</v>
@@ -6924,7 +6963,7 @@
     <row r="96" spans="1:15" ht="22.5" customHeight="1">
       <c r="A96" s="22"/>
       <c r="B96" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C96" s="24" t="s">
         <v>29</v>
@@ -6933,13 +6972,13 @@
         <v>21</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F96" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G96" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H96" s="25">
         <v>5.4</v>
@@ -6960,23 +6999,23 @@
         <v>0</v>
       </c>
       <c r="N96" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O96" s="30"/>
     </row>
     <row r="97" spans="1:15" ht="22.5" customHeight="1">
       <c r="A97" s="22"/>
       <c r="B97" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C97" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D97" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="E97" s="26" t="s">
         <v>504</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>505</v>
       </c>
       <c r="F97" s="27" t="s">
         <v>31</v>
@@ -7006,7 +7045,7 @@
     <row r="98" spans="1:15" ht="22.5" customHeight="1">
       <c r="A98" s="22"/>
       <c r="B98" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C98" s="24" t="s">
         <v>29</v>
@@ -7015,13 +7054,13 @@
         <v>44</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F98" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H98" s="25">
         <v>0.6</v>
@@ -7088,7 +7127,7 @@
     <row r="100" spans="1:15" ht="22.5" customHeight="1">
       <c r="A100" s="22"/>
       <c r="B100" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C100" s="24" t="s">
         <v>29</v>
@@ -7097,13 +7136,13 @@
         <v>44</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F100" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H100" s="25">
         <v>1.2</v>
@@ -7131,8 +7170,8 @@
       <c r="B101" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C101" s="24" t="s">
-        <v>15</v>
+      <c r="C101" s="56" t="s">
+        <v>680</v>
       </c>
       <c r="D101" s="25" t="s">
         <v>25</v>
@@ -7170,7 +7209,7 @@
     <row r="102" spans="1:15" ht="22.5" customHeight="1">
       <c r="A102" s="22"/>
       <c r="B102" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C102" s="24" t="s">
         <v>15</v>
@@ -7179,13 +7218,13 @@
         <v>44</v>
       </c>
       <c r="E102" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="F102" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" s="28" t="s">
-        <v>175</v>
       </c>
       <c r="H102" s="25">
         <v>6</v>
@@ -7211,22 +7250,22 @@
     <row r="103" spans="1:15" ht="22.5" customHeight="1">
       <c r="A103" s="22"/>
       <c r="B103" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C103" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" s="26" t="s">
-        <v>302</v>
-      </c>
       <c r="F103" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H103" s="25">
         <v>3</v>
@@ -7252,16 +7291,16 @@
     <row r="104" spans="1:15" ht="22.5" customHeight="1">
       <c r="A104" s="22"/>
       <c r="B104" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>85</v>
+        <v>258</v>
+      </c>
+      <c r="C104" s="56" t="s">
+        <v>682</v>
       </c>
       <c r="D104" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F104" s="27"/>
       <c r="G104" s="28"/>
@@ -7289,7 +7328,7 @@
     <row r="105" spans="1:15" ht="22.5" customHeight="1">
       <c r="A105" s="22"/>
       <c r="B105" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C105" s="24" t="s">
         <v>29</v>
@@ -7298,7 +7337,7 @@
         <v>25</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F105" s="27" t="s">
         <v>74</v>
@@ -7328,7 +7367,7 @@
     <row r="106" spans="1:15" ht="22.5" customHeight="1">
       <c r="A106" s="22"/>
       <c r="B106" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="24" t="s">
         <v>29</v>
@@ -7337,13 +7376,13 @@
         <v>25</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F106" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H106" s="25">
         <v>5.4</v>
@@ -7369,7 +7408,7 @@
     <row r="107" spans="1:15" ht="22.5" customHeight="1">
       <c r="A107" s="22"/>
       <c r="B107" s="23" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>29</v>
@@ -7378,13 +7417,13 @@
         <v>25</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F107" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H107" s="25">
         <v>0.6</v>
@@ -7453,7 +7492,7 @@
     <row r="109" spans="1:15" ht="22.5" customHeight="1">
       <c r="A109" s="22"/>
       <c r="B109" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C109" s="24" t="s">
         <v>29</v>
@@ -7462,13 +7501,13 @@
         <v>25</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F109" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H109" s="25">
         <v>0.6</v>
@@ -7537,7 +7576,7 @@
     <row r="111" spans="1:15" ht="22.5" customHeight="1">
       <c r="A111" s="22"/>
       <c r="B111" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>29</v>
@@ -7546,13 +7585,13 @@
         <v>25</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F111" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H111" s="25">
         <v>1.2</v>
@@ -7619,7 +7658,7 @@
     <row r="113" spans="1:15" ht="22.5" customHeight="1">
       <c r="A113" s="22"/>
       <c r="B113" s="23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C113" s="24" t="s">
         <v>29</v>
@@ -7628,13 +7667,13 @@
         <v>21</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F113" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G113" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H113" s="25">
         <v>0.6</v>
@@ -7701,10 +7740,10 @@
     <row r="115" spans="1:15" ht="22.5" customHeight="1">
       <c r="A115" s="22"/>
       <c r="B115" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>134</v>
+        <v>606</v>
+      </c>
+      <c r="C115" s="56" t="s">
+        <v>679</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>44</v>
@@ -7713,7 +7752,7 @@
         <v>26</v>
       </c>
       <c r="F115" s="27" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G115" s="28"/>
       <c r="H115" s="25">
@@ -7822,7 +7861,7 @@
     <row r="118" spans="1:15" ht="22.5" customHeight="1">
       <c r="A118" s="22"/>
       <c r="B118" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>29</v>
@@ -7831,13 +7870,13 @@
         <v>25</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F118" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G118" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H118" s="25">
         <v>1.2</v>
@@ -7863,7 +7902,7 @@
     <row r="119" spans="1:15" ht="22.5" customHeight="1">
       <c r="A119" s="22"/>
       <c r="B119" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C119" s="24" t="s">
         <v>29</v>
@@ -7872,7 +7911,7 @@
         <v>69</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F119" s="27" t="s">
         <v>94</v>
@@ -7902,7 +7941,7 @@
     <row r="120" spans="1:15" ht="22.5" customHeight="1">
       <c r="A120" s="22"/>
       <c r="B120" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C120" s="24" t="s">
         <v>29</v>
@@ -7911,13 +7950,13 @@
         <v>44</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F120" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H120" s="25">
         <v>1.8</v>
@@ -8025,7 +8064,7 @@
     <row r="123" spans="1:15" ht="22.5" customHeight="1">
       <c r="A123" s="22"/>
       <c r="B123" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C123" s="24" t="s">
         <v>29</v>
@@ -8034,13 +8073,13 @@
         <v>25</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F123" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G123" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H123" s="25">
         <v>1.8</v>
@@ -8066,7 +8105,7 @@
     <row r="124" spans="1:15" ht="22.5" customHeight="1">
       <c r="A124" s="22"/>
       <c r="B124" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C124" s="24" t="s">
         <v>29</v>
@@ -8075,13 +8114,13 @@
         <v>21</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F124" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G124" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H124" s="25">
         <v>0.6</v>
@@ -8107,7 +8146,7 @@
     <row r="125" spans="1:15" ht="22.5" customHeight="1">
       <c r="A125" s="22"/>
       <c r="B125" s="23" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C125" s="24" t="s">
         <v>29</v>
@@ -8116,13 +8155,13 @@
         <v>44</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F125" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G125" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H125" s="25">
         <v>0.6</v>
@@ -8189,7 +8228,7 @@
     <row r="127" spans="1:15" ht="22.5" customHeight="1">
       <c r="A127" s="22"/>
       <c r="B127" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C127" s="24" t="s">
         <v>15</v>
@@ -8228,10 +8267,10 @@
     <row r="128" spans="1:15" ht="22.5" customHeight="1">
       <c r="A128" s="22"/>
       <c r="B128" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="C128" s="24" t="s">
-        <v>85</v>
+        <v>406</v>
+      </c>
+      <c r="C128" s="56" t="s">
+        <v>682</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>69</v>
@@ -8243,7 +8282,7 @@
         <v>18</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H128" s="25">
         <v>1.2</v>
@@ -8269,7 +8308,7 @@
     <row r="129" spans="1:15" ht="22.5" customHeight="1">
       <c r="A129" s="22"/>
       <c r="B129" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C129" s="24" t="s">
         <v>15</v>
@@ -8278,13 +8317,13 @@
         <v>25</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F129" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G129" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H129" s="25">
         <v>6</v>
@@ -8310,7 +8349,7 @@
     <row r="130" spans="1:15" ht="22.5" customHeight="1">
       <c r="A130" s="22"/>
       <c r="B130" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C130" s="24" t="s">
         <v>29</v>
@@ -8319,7 +8358,7 @@
         <v>44</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F130" s="27" t="s">
         <v>31</v>
@@ -8349,7 +8388,7 @@
     <row r="131" spans="1:15" ht="22.5" customHeight="1">
       <c r="A131" s="22"/>
       <c r="B131" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C131" s="24" t="s">
         <v>29</v>
@@ -8358,13 +8397,13 @@
         <v>25</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F131" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G131" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H131" s="25">
         <v>4.2</v>
@@ -8390,7 +8429,7 @@
     <row r="132" spans="1:15" ht="22.5" customHeight="1">
       <c r="A132" s="22"/>
       <c r="B132" s="23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C132" s="24" t="s">
         <v>29</v>
@@ -8399,7 +8438,7 @@
         <v>25</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F132" s="27" t="s">
         <v>74</v>
@@ -8429,7 +8468,7 @@
     <row r="133" spans="1:15" ht="22.5" customHeight="1">
       <c r="A133" s="22"/>
       <c r="B133" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C133" s="24" t="s">
         <v>29</v>
@@ -8438,13 +8477,13 @@
         <v>25</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F133" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G133" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H133" s="25">
         <v>0.6</v>
@@ -8470,7 +8509,7 @@
     <row r="134" spans="1:15" ht="22.5" customHeight="1">
       <c r="A134" s="22"/>
       <c r="B134" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C134" s="24" t="s">
         <v>15</v>
@@ -8479,13 +8518,13 @@
         <v>25</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F134" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G134" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H134" s="25">
         <v>6.6</v>
@@ -8552,7 +8591,7 @@
     <row r="136" spans="1:15" ht="22.5" customHeight="1">
       <c r="A136" s="22"/>
       <c r="B136" s="23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C136" s="24" t="s">
         <v>29</v>
@@ -8561,13 +8600,13 @@
         <v>25</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F136" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G136" s="28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H136" s="25">
         <v>0.6</v>
@@ -8593,7 +8632,7 @@
     <row r="137" spans="1:15" ht="22.5" customHeight="1">
       <c r="A137" s="22"/>
       <c r="B137" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C137" s="24" t="s">
         <v>29</v>
@@ -8602,7 +8641,7 @@
         <v>44</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F137" s="27" t="s">
         <v>74</v>
@@ -8632,7 +8671,7 @@
     <row r="138" spans="1:15" ht="22.5" customHeight="1">
       <c r="A138" s="22"/>
       <c r="B138" s="23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C138" s="24" t="s">
         <v>29</v>
@@ -8641,13 +8680,13 @@
         <v>25</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F138" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G138" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H138" s="25">
         <v>0.6</v>
@@ -8673,7 +8712,7 @@
     <row r="139" spans="1:15" ht="22.5" customHeight="1">
       <c r="A139" s="22"/>
       <c r="B139" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C139" s="24" t="s">
         <v>29</v>
@@ -8682,13 +8721,13 @@
         <v>44</v>
       </c>
       <c r="E139" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="F139" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139" s="28" t="s">
         <v>320</v>
-      </c>
-      <c r="F139" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" s="28" t="s">
-        <v>321</v>
       </c>
       <c r="H139" s="25">
         <v>2.4</v>
@@ -8714,7 +8753,7 @@
     <row r="140" spans="1:15" ht="22.5" customHeight="1">
       <c r="A140" s="22"/>
       <c r="B140" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C140" s="24" t="s">
         <v>29</v>
@@ -8723,13 +8762,13 @@
         <v>25</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F140" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G140" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H140" s="25">
         <v>3</v>
@@ -8755,7 +8794,7 @@
     <row r="141" spans="1:15" ht="22.5" customHeight="1">
       <c r="A141" s="22"/>
       <c r="B141" s="23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C141" s="24" t="s">
         <v>29</v>
@@ -8794,20 +8833,20 @@
       <c r="B142" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C142" s="24" t="s">
-        <v>134</v>
+      <c r="C142" s="56" t="s">
+        <v>679</v>
       </c>
       <c r="D142" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F142" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G142" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H142" s="25">
         <v>7.2</v>
@@ -8833,7 +8872,7 @@
     <row r="143" spans="1:15" ht="22.5" customHeight="1">
       <c r="A143" s="22"/>
       <c r="B143" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C143" s="24" t="s">
         <v>29</v>
@@ -8842,13 +8881,13 @@
         <v>16</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F143" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G143" s="28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H143" s="25">
         <v>0</v>
@@ -8874,7 +8913,7 @@
     <row r="144" spans="1:15" ht="22.5" customHeight="1">
       <c r="A144" s="22"/>
       <c r="B144" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C144" s="24" t="s">
         <v>29</v>
@@ -8883,7 +8922,7 @@
         <v>69</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F144" s="27" t="s">
         <v>31</v>
@@ -8913,7 +8952,7 @@
     <row r="145" spans="1:15" ht="22.5" customHeight="1">
       <c r="A145" s="22"/>
       <c r="B145" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C145" s="24" t="s">
         <v>15</v>
@@ -8922,7 +8961,7 @@
         <v>44</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F145" s="27" t="s">
         <v>94</v>
@@ -8952,7 +8991,7 @@
     <row r="146" spans="1:15" ht="22.5" customHeight="1">
       <c r="A146" s="22"/>
       <c r="B146" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C146" s="24" t="s">
         <v>15</v>
@@ -8961,13 +9000,13 @@
         <v>21</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F146" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G146" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H146" s="25">
         <v>6.2</v>
@@ -8995,7 +9034,7 @@
     <row r="147" spans="1:15" ht="22.5" customHeight="1">
       <c r="A147" s="22"/>
       <c r="B147" s="23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C147" s="24" t="s">
         <v>29</v>
@@ -9004,13 +9043,13 @@
         <v>25</v>
       </c>
       <c r="E147" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F147" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G147" s="28" t="s">
         <v>410</v>
-      </c>
-      <c r="F147" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="G147" s="28" t="s">
-        <v>411</v>
       </c>
       <c r="H147" s="25">
         <v>1.2</v>
@@ -9036,10 +9075,10 @@
     <row r="148" spans="1:15" ht="22.5" customHeight="1">
       <c r="A148" s="22"/>
       <c r="B148" s="23" t="s">
-        <v>612</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>134</v>
+        <v>610</v>
+      </c>
+      <c r="C148" s="56" t="s">
+        <v>679</v>
       </c>
       <c r="D148" s="25" t="s">
         <v>44</v>
@@ -9068,17 +9107,17 @@
         <v>0</v>
       </c>
       <c r="N148" s="29" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="O148" s="30"/>
     </row>
     <row r="149" spans="1:15" ht="22.5" customHeight="1">
       <c r="A149" s="22"/>
       <c r="B149" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C149" s="24" t="s">
-        <v>29</v>
+        <v>411</v>
+      </c>
+      <c r="C149" s="56" t="s">
+        <v>682</v>
       </c>
       <c r="D149" s="25" t="s">
         <v>44</v>
@@ -9114,7 +9153,7 @@
     <row r="150" spans="1:15" ht="22.5" customHeight="1">
       <c r="A150" s="22"/>
       <c r="B150" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C150" s="24" t="s">
         <v>15</v>
@@ -9123,7 +9162,7 @@
         <v>44</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F150" s="27" t="s">
         <v>94</v>
@@ -9153,7 +9192,7 @@
     <row r="151" spans="1:15" ht="22.5" customHeight="1">
       <c r="A151" s="22"/>
       <c r="B151" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C151" s="24" t="s">
         <v>29</v>
@@ -9162,7 +9201,7 @@
         <v>44</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F151" s="27" t="s">
         <v>74</v>
@@ -9192,7 +9231,7 @@
     <row r="152" spans="1:15" ht="22.5" customHeight="1">
       <c r="A152" s="22"/>
       <c r="B152" s="23" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C152" s="24" t="s">
         <v>29</v>
@@ -9231,10 +9270,10 @@
     <row r="153" spans="1:15" ht="22.5" customHeight="1">
       <c r="A153" s="22"/>
       <c r="B153" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D153" s="25" t="s">
         <v>44</v>
@@ -9268,22 +9307,22 @@
     <row r="154" spans="1:15" ht="22.5" customHeight="1">
       <c r="A154" s="22"/>
       <c r="B154" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D154" s="25" t="s">
         <v>44</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F154" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G154" s="28" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H154" s="25">
         <v>0</v>
@@ -9309,7 +9348,7 @@
     <row r="155" spans="1:15" ht="22.5" customHeight="1">
       <c r="A155" s="22"/>
       <c r="B155" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C155" s="24" t="s">
         <v>29</v>
@@ -9318,13 +9357,13 @@
         <v>25</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F155" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G155" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H155" s="25">
         <v>2.4</v>
@@ -9391,7 +9430,7 @@
     <row r="157" spans="1:15" ht="22.5" customHeight="1">
       <c r="A157" s="22"/>
       <c r="B157" s="23" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C157" s="24" t="s">
         <v>29</v>
@@ -9400,13 +9439,13 @@
         <v>44</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F157" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G157" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H157" s="25">
         <v>0.6</v>
@@ -9432,16 +9471,16 @@
     <row r="158" spans="1:15" ht="22.5" customHeight="1">
       <c r="A158" s="22"/>
       <c r="B158" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="C158" s="57" t="s">
+        <v>685</v>
+      </c>
+      <c r="D158" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E158" s="26" t="s">
         <v>413</v>
-      </c>
-      <c r="C158" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D158" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E158" s="26" t="s">
-        <v>414</v>
       </c>
       <c r="F158" s="27" t="s">
         <v>31</v>
@@ -9471,10 +9510,10 @@
     <row r="159" spans="1:15" ht="22.5" customHeight="1">
       <c r="A159" s="22"/>
       <c r="B159" s="23" t="s">
-        <v>617</v>
-      </c>
-      <c r="C159" s="24" t="s">
-        <v>535</v>
+        <v>615</v>
+      </c>
+      <c r="C159" s="56" t="s">
+        <v>686</v>
       </c>
       <c r="D159" s="25" t="s">
         <v>44</v>
@@ -9547,7 +9586,7 @@
     <row r="161" spans="1:15" ht="22.5" customHeight="1">
       <c r="A161" s="22"/>
       <c r="B161" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C161" s="24" t="s">
         <v>15</v>
@@ -9579,29 +9618,29 @@
         <v>0</v>
       </c>
       <c r="N161" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O161" s="30"/>
     </row>
     <row r="162" spans="1:15" ht="22.5" customHeight="1">
       <c r="A162" s="22"/>
       <c r="B162" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="C162" s="24" t="s">
-        <v>29</v>
+        <v>360</v>
+      </c>
+      <c r="C162" s="56" t="s">
+        <v>684</v>
       </c>
       <c r="D162" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F162" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G162" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H162" s="25">
         <v>1.8</v>
@@ -9627,7 +9666,7 @@
     <row r="163" spans="1:15" ht="22.5" customHeight="1">
       <c r="A163" s="22"/>
       <c r="B163" s="23" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C163" s="24" t="s">
         <v>29</v>
@@ -9636,13 +9675,13 @@
         <v>25</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F163" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G163" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H163" s="25">
         <v>0.6</v>
@@ -9668,7 +9707,7 @@
     <row r="164" spans="1:15" ht="22.5" customHeight="1">
       <c r="A164" s="22"/>
       <c r="B164" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C164" s="24" t="s">
         <v>15</v>
@@ -9677,13 +9716,13 @@
         <v>44</v>
       </c>
       <c r="E164" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F164" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" s="28" t="s">
         <v>181</v>
-      </c>
-      <c r="F164" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" s="28" t="s">
-        <v>182</v>
       </c>
       <c r="H164" s="25">
         <v>6</v>
@@ -9709,7 +9748,7 @@
     <row r="165" spans="1:15" ht="22.5" customHeight="1">
       <c r="A165" s="22"/>
       <c r="B165" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C165" s="24" t="s">
         <v>29</v>
@@ -9718,7 +9757,7 @@
         <v>21</v>
       </c>
       <c r="E165" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F165" s="27" t="s">
         <v>74</v>
@@ -9748,7 +9787,7 @@
     <row r="166" spans="1:15" ht="22.5" customHeight="1">
       <c r="A166" s="22"/>
       <c r="B166" s="23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C166" s="24" t="s">
         <v>29</v>
@@ -9757,13 +9796,13 @@
         <v>25</v>
       </c>
       <c r="E166" s="26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F166" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G166" s="28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H166" s="25">
         <v>0.6</v>
@@ -9830,22 +9869,22 @@
     <row r="168" spans="1:15" ht="22.5" customHeight="1">
       <c r="A168" s="22"/>
       <c r="B168" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="C168" s="24" t="s">
-        <v>15</v>
+        <v>223</v>
+      </c>
+      <c r="C168" s="56" t="s">
+        <v>680</v>
       </c>
       <c r="D168" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E168" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="F168" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G168" s="28" t="s">
         <v>225</v>
-      </c>
-      <c r="F168" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" s="28" t="s">
-        <v>226</v>
       </c>
       <c r="H168" s="25">
         <v>4.8</v>
@@ -9871,7 +9910,7 @@
     <row r="169" spans="1:15" ht="22.5" customHeight="1">
       <c r="A169" s="22"/>
       <c r="B169" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C169" s="24" t="s">
         <v>29</v>
@@ -9883,10 +9922,10 @@
         <v>26</v>
       </c>
       <c r="F169" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G169" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H169" s="25">
         <v>1.2</v>
@@ -9912,7 +9951,7 @@
     <row r="170" spans="1:15" ht="22.5" customHeight="1">
       <c r="A170" s="22"/>
       <c r="B170" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C170" s="24" t="s">
         <v>29</v>
@@ -9953,16 +9992,16 @@
     <row r="171" spans="1:15" ht="22.5" customHeight="1">
       <c r="A171" s="22"/>
       <c r="B171" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="C171" s="24" t="s">
-        <v>85</v>
+        <v>226</v>
+      </c>
+      <c r="C171" s="56" t="s">
+        <v>682</v>
       </c>
       <c r="D171" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F171" s="27"/>
       <c r="G171" s="28"/>
@@ -9990,7 +10029,7 @@
     <row r="172" spans="1:15" ht="22.5" customHeight="1">
       <c r="A172" s="22"/>
       <c r="B172" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C172" s="24" t="s">
         <v>15</v>
@@ -9999,7 +10038,7 @@
         <v>44</v>
       </c>
       <c r="E172" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F172" s="27" t="s">
         <v>31</v>
@@ -10029,7 +10068,7 @@
     <row r="173" spans="1:15" ht="22.5" customHeight="1">
       <c r="A173" s="22"/>
       <c r="B173" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C173" s="24" t="s">
         <v>85</v>
@@ -10066,7 +10105,7 @@
     <row r="174" spans="1:15" ht="22.5" customHeight="1">
       <c r="A174" s="22"/>
       <c r="B174" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C174" s="24" t="s">
         <v>15</v>
@@ -10075,13 +10114,13 @@
         <v>16</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F174" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G174" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H174" s="25">
         <v>2.4</v>
@@ -10107,16 +10146,16 @@
     <row r="175" spans="1:15" ht="22.5" customHeight="1">
       <c r="A175" s="22"/>
       <c r="B175" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="C175" s="56" t="s">
+        <v>682</v>
+      </c>
+      <c r="D175" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E175" s="26" t="s">
         <v>534</v>
-      </c>
-      <c r="C175" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="D175" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E175" s="26" t="s">
-        <v>536</v>
       </c>
       <c r="F175" s="27" t="s">
         <v>74</v>
@@ -10146,7 +10185,7 @@
     <row r="176" spans="1:15" ht="22.5" customHeight="1">
       <c r="A176" s="22"/>
       <c r="B176" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C176" s="24" t="s">
         <v>15</v>
@@ -10155,13 +10194,13 @@
         <v>21</v>
       </c>
       <c r="E176" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F176" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G176" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H176" s="25">
         <v>4.2</v>
@@ -10187,7 +10226,7 @@
     <row r="177" spans="1:15" ht="22.5" customHeight="1">
       <c r="A177" s="22"/>
       <c r="B177" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C177" s="24" t="s">
         <v>29</v>
@@ -10196,7 +10235,7 @@
         <v>44</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F177" s="27" t="s">
         <v>74</v>
@@ -10226,7 +10265,7 @@
     <row r="178" spans="1:15" ht="22.5" customHeight="1">
       <c r="A178" s="22"/>
       <c r="B178" s="23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C178" s="24" t="s">
         <v>29</v>
@@ -10235,13 +10274,13 @@
         <v>44</v>
       </c>
       <c r="E178" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F178" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G178" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H178" s="25">
         <v>1.2</v>
@@ -10267,7 +10306,7 @@
     <row r="179" spans="1:15" ht="22.5" customHeight="1">
       <c r="A179" s="22"/>
       <c r="B179" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C179" s="24" t="s">
         <v>15</v>
@@ -10276,13 +10315,13 @@
         <v>21</v>
       </c>
       <c r="E179" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F179" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G179" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H179" s="25">
         <v>4.2</v>
@@ -10308,7 +10347,7 @@
     <row r="180" spans="1:15" ht="22.5" customHeight="1">
       <c r="A180" s="22"/>
       <c r="B180" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C180" s="24" t="s">
         <v>15</v>
@@ -10345,7 +10384,7 @@
     <row r="181" spans="1:15" ht="22.5" customHeight="1">
       <c r="A181" s="22"/>
       <c r="B181" s="23" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C181" s="24" t="s">
         <v>29</v>
@@ -10354,13 +10393,13 @@
         <v>44</v>
       </c>
       <c r="E181" s="26" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F181" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G181" s="28" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H181" s="25">
         <v>0.6</v>
@@ -10468,7 +10507,7 @@
     <row r="184" spans="1:15" ht="22.5" customHeight="1">
       <c r="A184" s="22"/>
       <c r="B184" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C184" s="24" t="s">
         <v>29</v>
@@ -10477,13 +10516,13 @@
         <v>16</v>
       </c>
       <c r="E184" s="26" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F184" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G184" s="28" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H184" s="25">
         <v>0</v>
@@ -10509,7 +10548,7 @@
     <row r="185" spans="1:15" ht="22.5" customHeight="1">
       <c r="A185" s="22"/>
       <c r="B185" s="23" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C185" s="24" t="s">
         <v>29</v>
@@ -10518,13 +10557,13 @@
         <v>21</v>
       </c>
       <c r="E185" s="26" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F185" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G185" s="28" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H185" s="25">
         <v>0.6</v>
@@ -10550,7 +10589,7 @@
     <row r="186" spans="1:15" ht="22.5" customHeight="1">
       <c r="A186" s="22"/>
       <c r="B186" s="23" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C186" s="24" t="s">
         <v>29</v>
@@ -10559,13 +10598,13 @@
         <v>21</v>
       </c>
       <c r="E186" s="26" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F186" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G186" s="28" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H186" s="25">
         <v>0.6</v>
@@ -10630,7 +10669,7 @@
     <row r="188" spans="1:15" ht="22.5" customHeight="1">
       <c r="A188" s="22"/>
       <c r="B188" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C188" s="24" t="s">
         <v>29</v>
@@ -10669,7 +10708,7 @@
     <row r="189" spans="1:15" ht="22.5" customHeight="1">
       <c r="A189" s="22"/>
       <c r="B189" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C189" s="24" t="s">
         <v>15</v>
@@ -10678,13 +10717,13 @@
         <v>25</v>
       </c>
       <c r="E189" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F189" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G189" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H189" s="25">
         <v>6.6</v>
@@ -10712,8 +10751,8 @@
       <c r="B190" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C190" s="24" t="s">
-        <v>15</v>
+      <c r="C190" s="56" t="s">
+        <v>680</v>
       </c>
       <c r="D190" s="25" t="s">
         <v>16</v>
@@ -10749,7 +10788,7 @@
     <row r="191" spans="1:15" ht="22.5" customHeight="1">
       <c r="A191" s="22"/>
       <c r="B191" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C191" s="24" t="s">
         <v>29</v>
@@ -10758,7 +10797,7 @@
         <v>44</v>
       </c>
       <c r="E191" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F191" s="27" t="s">
         <v>74</v>
@@ -10790,8 +10829,8 @@
       <c r="B192" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C192" s="24" t="s">
-        <v>15</v>
+      <c r="C192" s="56" t="s">
+        <v>682</v>
       </c>
       <c r="D192" s="25" t="s">
         <v>69</v>
@@ -10829,22 +10868,22 @@
     <row r="193" spans="1:15" ht="22.5" customHeight="1">
       <c r="A193" s="22"/>
       <c r="B193" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="C193" s="24" t="s">
-        <v>85</v>
+        <v>541</v>
+      </c>
+      <c r="C193" s="56" t="s">
+        <v>682</v>
       </c>
       <c r="D193" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E193" s="26" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F193" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G193" s="28" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H193" s="25">
         <v>0.6</v>
@@ -10870,7 +10909,7 @@
     <row r="194" spans="1:15" ht="22.5" customHeight="1">
       <c r="A194" s="22"/>
       <c r="B194" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C194" s="24" t="s">
         <v>85</v>
@@ -10879,13 +10918,13 @@
         <v>44</v>
       </c>
       <c r="E194" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F194" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G194" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H194" s="25">
         <v>3.6</v>
@@ -10911,7 +10950,7 @@
     <row r="195" spans="1:15" ht="22.5" customHeight="1">
       <c r="A195" s="22"/>
       <c r="B195" s="23" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C195" s="24" t="s">
         <v>29</v>
@@ -10920,13 +10959,13 @@
         <v>44</v>
       </c>
       <c r="E195" s="26" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F195" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G195" s="28" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H195" s="25">
         <v>0.6</v>
@@ -10952,7 +10991,7 @@
     <row r="196" spans="1:15" ht="22.5" customHeight="1">
       <c r="A196" s="22"/>
       <c r="B196" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C196" s="24" t="s">
         <v>85</v>
@@ -10961,7 +11000,7 @@
         <v>44</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F196" s="27"/>
       <c r="G196" s="28"/>
@@ -10989,10 +11028,10 @@
     <row r="197" spans="1:15" ht="22.5" customHeight="1">
       <c r="A197" s="22"/>
       <c r="B197" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="C197" s="24" t="s">
-        <v>29</v>
+        <v>268</v>
+      </c>
+      <c r="C197" s="56" t="s">
+        <v>682</v>
       </c>
       <c r="D197" s="25" t="s">
         <v>44</v>
@@ -11004,7 +11043,7 @@
         <v>18</v>
       </c>
       <c r="G197" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H197" s="25">
         <v>0.6</v>
@@ -11112,7 +11151,7 @@
     <row r="200" spans="1:15" ht="22.5" customHeight="1">
       <c r="A200" s="22"/>
       <c r="B200" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C200" s="24" t="s">
         <v>29</v>
@@ -11121,7 +11160,7 @@
         <v>44</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F200" s="27" t="s">
         <v>74</v>
@@ -11151,7 +11190,7 @@
     <row r="201" spans="1:15" ht="22.5" customHeight="1">
       <c r="A201" s="22"/>
       <c r="B201" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C201" s="24" t="s">
         <v>29</v>
@@ -11160,13 +11199,13 @@
         <v>44</v>
       </c>
       <c r="E201" s="26" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F201" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G201" s="28" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H201" s="25">
         <v>0.6</v>
@@ -11192,7 +11231,7 @@
     <row r="202" spans="1:15" ht="22.5" customHeight="1">
       <c r="A202" s="22"/>
       <c r="B202" s="23" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C202" s="24" t="s">
         <v>29</v>
@@ -11201,7 +11240,7 @@
         <v>44</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F202" s="27" t="s">
         <v>74</v>
@@ -11231,22 +11270,22 @@
     <row r="203" spans="1:15" ht="22.5" customHeight="1">
       <c r="A203" s="22"/>
       <c r="B203" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="C203" s="24" t="s">
-        <v>15</v>
+        <v>421</v>
+      </c>
+      <c r="C203" s="57" t="s">
+        <v>681</v>
       </c>
       <c r="D203" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E203" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="F203" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" s="28" t="s">
         <v>423</v>
-      </c>
-      <c r="F203" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" s="28" t="s">
-        <v>424</v>
       </c>
       <c r="H203" s="25">
         <v>1.2</v>
@@ -11272,22 +11311,22 @@
     <row r="204" spans="1:15" ht="22.5" customHeight="1">
       <c r="A204" s="22"/>
       <c r="B204" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="C204" s="24" t="s">
-        <v>552</v>
+        <v>549</v>
+      </c>
+      <c r="C204" s="56" t="s">
+        <v>682</v>
       </c>
       <c r="D204" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E204" s="26" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F204" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G204" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H204" s="25">
         <v>0.6</v>
@@ -11313,22 +11352,22 @@
     <row r="205" spans="1:15" ht="22.5" customHeight="1">
       <c r="A205" s="22"/>
       <c r="B205" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="C205" s="56" t="s">
+        <v>682</v>
+      </c>
+      <c r="D205" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E205" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="F205" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G205" s="28" t="s">
         <v>554</v>
-      </c>
-      <c r="C205" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D205" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E205" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="F205" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" s="28" t="s">
-        <v>556</v>
       </c>
       <c r="H205" s="25">
         <v>0.6</v>
@@ -11354,7 +11393,7 @@
     <row r="206" spans="1:15" ht="22.5" customHeight="1">
       <c r="A206" s="22"/>
       <c r="B206" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C206" s="24" t="s">
         <v>15</v>
@@ -11363,13 +11402,13 @@
         <v>44</v>
       </c>
       <c r="E206" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F206" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G206" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H206" s="25">
         <v>1.2</v>
@@ -11397,7 +11436,7 @@
     <row r="207" spans="1:15" ht="22.5" customHeight="1">
       <c r="A207" s="22"/>
       <c r="B207" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C207" s="24" t="s">
         <v>29</v>
@@ -11406,13 +11445,13 @@
         <v>16</v>
       </c>
       <c r="E207" s="26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F207" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G207" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H207" s="25">
         <v>1.2</v>
@@ -11433,17 +11472,17 @@
         <v>0</v>
       </c>
       <c r="N207" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O207" s="30"/>
     </row>
     <row r="208" spans="1:15" ht="22.5" customHeight="1">
       <c r="A208" s="22"/>
       <c r="B208" s="23" t="s">
-        <v>620</v>
-      </c>
-      <c r="C208" s="24" t="s">
-        <v>134</v>
+        <v>618</v>
+      </c>
+      <c r="C208" s="56" t="s">
+        <v>679</v>
       </c>
       <c r="D208" s="25" t="s">
         <v>25</v>
@@ -11472,14 +11511,14 @@
         <v>0</v>
       </c>
       <c r="N208" s="29" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="O208" s="30"/>
     </row>
     <row r="209" spans="1:15" ht="22.5" customHeight="1">
       <c r="A209" s="22"/>
       <c r="B209" s="23" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C209" s="24" t="s">
         <v>29</v>
@@ -11488,7 +11527,7 @@
         <v>44</v>
       </c>
       <c r="E209" s="26" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F209" s="27" t="s">
         <v>74</v>
@@ -11518,7 +11557,7 @@
     <row r="210" spans="1:15" ht="22.5" customHeight="1">
       <c r="A210" s="22"/>
       <c r="B210" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C210" s="24" t="s">
         <v>29</v>
@@ -11527,13 +11566,13 @@
         <v>44</v>
       </c>
       <c r="E210" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F210" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G210" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H210" s="25">
         <v>2.5</v>
@@ -11561,7 +11600,7 @@
     <row r="211" spans="1:15" ht="22.5" customHeight="1">
       <c r="A211" s="22"/>
       <c r="B211" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C211" s="24" t="s">
         <v>29</v>
@@ -11570,13 +11609,13 @@
         <v>25</v>
       </c>
       <c r="E211" s="26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F211" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G211" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H211" s="25">
         <v>1.2</v>
@@ -11602,7 +11641,7 @@
     <row r="212" spans="1:15" ht="22.5" customHeight="1">
       <c r="A212" s="22"/>
       <c r="B212" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C212" s="24" t="s">
         <v>29</v>
@@ -11611,13 +11650,13 @@
         <v>44</v>
       </c>
       <c r="E212" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F212" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G212" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H212" s="25">
         <v>1.2</v>
@@ -11643,7 +11682,7 @@
     <row r="213" spans="1:15" ht="22.5" customHeight="1">
       <c r="A213" s="22"/>
       <c r="B213" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C213" s="24" t="s">
         <v>15</v>
@@ -11652,13 +11691,13 @@
         <v>21</v>
       </c>
       <c r="E213" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F213" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G213" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H213" s="25">
         <v>4.2</v>
@@ -11684,7 +11723,7 @@
     <row r="214" spans="1:15" ht="22.5" customHeight="1">
       <c r="A214" s="22"/>
       <c r="B214" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C214" s="24" t="s">
         <v>15</v>
@@ -11721,7 +11760,7 @@
     <row r="215" spans="1:15" ht="22.5" customHeight="1">
       <c r="A215" s="22"/>
       <c r="B215" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C215" s="24" t="s">
         <v>15</v>
@@ -11730,7 +11769,7 @@
         <v>44</v>
       </c>
       <c r="E215" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F215" s="27" t="s">
         <v>74</v>
@@ -11762,8 +11801,8 @@
       <c r="B216" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C216" s="24" t="s">
-        <v>15</v>
+      <c r="C216" s="56" t="s">
+        <v>680</v>
       </c>
       <c r="D216" s="25" t="s">
         <v>21</v>
@@ -11799,7 +11838,7 @@
     <row r="217" spans="1:15" ht="22.5" customHeight="1">
       <c r="A217" s="22"/>
       <c r="B217" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C217" s="24" t="s">
         <v>15</v>
@@ -11808,13 +11847,13 @@
         <v>25</v>
       </c>
       <c r="E217" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G217" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H217" s="25">
         <v>5.4</v>
@@ -11840,7 +11879,7 @@
     <row r="218" spans="1:15" ht="22.5" customHeight="1">
       <c r="A218" s="22"/>
       <c r="B218" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C218" s="24" t="s">
         <v>29</v>
@@ -11849,7 +11888,7 @@
         <v>44</v>
       </c>
       <c r="E218" s="26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F218" s="27" t="s">
         <v>31</v>
@@ -11881,8 +11920,8 @@
       <c r="B219" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C219" s="24" t="s">
-        <v>15</v>
+      <c r="C219" s="56" t="s">
+        <v>681</v>
       </c>
       <c r="D219" s="25" t="s">
         <v>25</v>
@@ -11918,7 +11957,7 @@
     <row r="220" spans="1:15" ht="22.5" customHeight="1">
       <c r="A220" s="22"/>
       <c r="B220" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C220" s="24" t="s">
         <v>29</v>
@@ -11927,13 +11966,13 @@
         <v>21</v>
       </c>
       <c r="E220" s="26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F220" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G220" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H220" s="25">
         <v>1.2</v>
@@ -11959,7 +11998,7 @@
     <row r="221" spans="1:15" ht="22.5" customHeight="1">
       <c r="A221" s="22"/>
       <c r="B221" s="23" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C221" s="24" t="s">
         <v>29</v>
@@ -11968,13 +12007,13 @@
         <v>44</v>
       </c>
       <c r="E221" s="26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F221" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G221" s="28" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H221" s="25">
         <v>0.6</v>
@@ -12000,7 +12039,7 @@
     <row r="222" spans="1:15" ht="22.5" customHeight="1">
       <c r="A222" s="22"/>
       <c r="B222" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C222" s="24" t="s">
         <v>15</v>
@@ -12009,13 +12048,13 @@
         <v>21</v>
       </c>
       <c r="E222" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F222" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G222" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H222" s="25">
         <v>4.8</v>
@@ -12041,7 +12080,7 @@
     <row r="223" spans="1:15" ht="22.5" customHeight="1">
       <c r="A223" s="22"/>
       <c r="B223" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C223" s="24" t="s">
         <v>29</v>
@@ -12050,7 +12089,7 @@
         <v>44</v>
       </c>
       <c r="E223" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F223" s="27" t="s">
         <v>74</v>
@@ -12080,7 +12119,7 @@
     <row r="224" spans="1:15" ht="22.5" customHeight="1">
       <c r="A224" s="22"/>
       <c r="B224" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C224" s="24" t="s">
         <v>29</v>
@@ -12089,7 +12128,7 @@
         <v>21</v>
       </c>
       <c r="E224" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F224" s="27" t="s">
         <v>31</v>
@@ -12119,7 +12158,7 @@
     <row r="225" spans="1:15" ht="22.5" customHeight="1">
       <c r="A225" s="22"/>
       <c r="B225" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C225" s="24" t="s">
         <v>15</v>
@@ -12128,7 +12167,7 @@
         <v>44</v>
       </c>
       <c r="E225" s="26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F225" s="27" t="s">
         <v>74</v>
@@ -12153,14 +12192,14 @@
         <v>0</v>
       </c>
       <c r="N225" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O225" s="30"/>
     </row>
     <row r="226" spans="1:15" ht="22.5" customHeight="1">
       <c r="A226" s="22"/>
       <c r="B226" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C226" s="24" t="s">
         <v>29</v>
@@ -12169,13 +12208,13 @@
         <v>44</v>
       </c>
       <c r="E226" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F226" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G226" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H226" s="25">
         <v>1.8</v>
@@ -12201,7 +12240,7 @@
     <row r="227" spans="1:15" ht="22.5" customHeight="1">
       <c r="A227" s="22"/>
       <c r="B227" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C227" s="24" t="s">
         <v>15</v>
@@ -12210,13 +12249,13 @@
         <v>25</v>
       </c>
       <c r="E227" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F227" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G227" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H227" s="25">
         <v>6.6</v>
@@ -12242,7 +12281,7 @@
     <row r="228" spans="1:15" ht="22.5" customHeight="1">
       <c r="A228" s="22"/>
       <c r="B228" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C228" s="24" t="s">
         <v>29</v>
@@ -12251,13 +12290,13 @@
         <v>44</v>
       </c>
       <c r="E228" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F228" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G228" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H228" s="25">
         <v>3</v>
@@ -12283,7 +12322,7 @@
     <row r="229" spans="1:15" ht="22.5" customHeight="1">
       <c r="A229" s="22"/>
       <c r="B229" s="23" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C229" s="24" t="s">
         <v>29</v>
@@ -12292,13 +12331,13 @@
         <v>44</v>
       </c>
       <c r="E229" s="26" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F229" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G229" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H229" s="25">
         <v>0.6</v>
@@ -12369,8 +12408,8 @@
       <c r="B231" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C231" s="24" t="s">
-        <v>15</v>
+      <c r="C231" s="56" t="s">
+        <v>684</v>
       </c>
       <c r="D231" s="25" t="s">
         <v>21</v>
@@ -12406,7 +12445,7 @@
     <row r="232" spans="1:15" ht="22.5" customHeight="1">
       <c r="A232" s="22"/>
       <c r="B232" s="23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C232" s="24" t="s">
         <v>29</v>
@@ -12447,10 +12486,10 @@
     <row r="233" spans="1:15" ht="22.5" customHeight="1">
       <c r="A233" s="22"/>
       <c r="B233" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="C233" s="24" t="s">
-        <v>134</v>
+        <v>435</v>
+      </c>
+      <c r="C233" s="56" t="s">
+        <v>679</v>
       </c>
       <c r="D233" s="25" t="s">
         <v>44</v>
@@ -12462,7 +12501,7 @@
         <v>18</v>
       </c>
       <c r="G233" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H233" s="25">
         <v>1.2</v>
@@ -12488,7 +12527,7 @@
     <row r="234" spans="1:15" ht="22.5" customHeight="1">
       <c r="A234" s="22"/>
       <c r="B234" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C234" s="24" t="s">
         <v>15</v>
@@ -12497,7 +12536,7 @@
         <v>44</v>
       </c>
       <c r="E234" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F234" s="27" t="s">
         <v>74</v>
@@ -12527,7 +12566,7 @@
     <row r="235" spans="1:15" ht="22.5" customHeight="1">
       <c r="A235" s="22"/>
       <c r="B235" s="23" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C235" s="24" t="s">
         <v>29</v>
@@ -12539,10 +12578,10 @@
         <v>26</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G235" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H235" s="25">
         <v>0.6</v>
@@ -12568,7 +12607,7 @@
     <row r="236" spans="1:15" ht="22.5" customHeight="1">
       <c r="A236" s="22"/>
       <c r="B236" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C236" s="24" t="s">
         <v>29</v>
@@ -12577,13 +12616,13 @@
         <v>25</v>
       </c>
       <c r="E236" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="F236" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G236" s="28" t="s">
         <v>274</v>
-      </c>
-      <c r="F236" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G236" s="28" t="s">
-        <v>275</v>
       </c>
       <c r="H236" s="25">
         <v>4.2</v>
@@ -12609,7 +12648,7 @@
     <row r="237" spans="1:15" ht="22.5" customHeight="1">
       <c r="A237" s="22"/>
       <c r="B237" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C237" s="24" t="s">
         <v>15</v>
@@ -12624,7 +12663,7 @@
         <v>18</v>
       </c>
       <c r="G237" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H237" s="25">
         <v>4.2</v>
@@ -12650,7 +12689,7 @@
     <row r="238" spans="1:15" ht="22.5" customHeight="1">
       <c r="A238" s="22"/>
       <c r="B238" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C238" s="24" t="s">
         <v>29</v>
@@ -12659,7 +12698,7 @@
         <v>21</v>
       </c>
       <c r="E238" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F238" s="27" t="s">
         <v>74</v>
@@ -12684,23 +12723,23 @@
         <v>1</v>
       </c>
       <c r="N238" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O238" s="30"/>
     </row>
     <row r="239" spans="1:15" ht="22.5" customHeight="1">
       <c r="A239" s="22"/>
       <c r="B239" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="C239" s="24" t="s">
-        <v>85</v>
+        <v>306</v>
+      </c>
+      <c r="C239" s="56" t="s">
+        <v>682</v>
       </c>
       <c r="D239" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E239" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F239" s="27" t="s">
         <v>74</v>
@@ -12767,7 +12806,7 @@
     <row r="241" spans="1:15" ht="22.5" customHeight="1">
       <c r="A241" s="22"/>
       <c r="B241" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C241" s="24" t="s">
         <v>15</v>
@@ -12776,13 +12815,13 @@
         <v>44</v>
       </c>
       <c r="E241" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F241" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G241" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H241" s="25">
         <v>4.2</v>
@@ -12808,7 +12847,7 @@
     <row r="242" spans="1:15" ht="22.5" customHeight="1">
       <c r="A242" s="22"/>
       <c r="B242" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C242" s="24" t="s">
         <v>29</v>
@@ -12817,13 +12856,13 @@
         <v>16</v>
       </c>
       <c r="E242" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="F242" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G242" s="28" t="s">
         <v>439</v>
-      </c>
-      <c r="F242" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G242" s="28" t="s">
-        <v>440</v>
       </c>
       <c r="H242" s="25">
         <v>1.2</v>
@@ -12849,22 +12888,22 @@
     <row r="243" spans="1:15" ht="22.5" customHeight="1">
       <c r="A243" s="22"/>
       <c r="B243" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="C243" s="24" t="s">
-        <v>15</v>
+        <v>447</v>
+      </c>
+      <c r="C243" s="56" t="s">
+        <v>680</v>
       </c>
       <c r="D243" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E243" s="26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F243" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G243" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H243" s="25">
         <v>1.1000000000000001</v>
@@ -12885,7 +12924,7 @@
         <v>3</v>
       </c>
       <c r="N243" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O243" s="30"/>
     </row>
@@ -12894,8 +12933,8 @@
       <c r="B244" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C244" s="24" t="s">
-        <v>15</v>
+      <c r="C244" s="56" t="s">
+        <v>680</v>
       </c>
       <c r="D244" s="25" t="s">
         <v>25</v>
@@ -12933,7 +12972,7 @@
     <row r="245" spans="1:15" ht="22.5" customHeight="1">
       <c r="A245" s="22"/>
       <c r="B245" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C245" s="24" t="s">
         <v>29</v>
@@ -12942,13 +12981,13 @@
         <v>44</v>
       </c>
       <c r="E245" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F245" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G245" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H245" s="25">
         <v>3</v>
@@ -12974,7 +13013,7 @@
     <row r="246" spans="1:15" ht="22.5" customHeight="1">
       <c r="A246" s="22"/>
       <c r="B246" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C246" s="24" t="s">
         <v>15</v>
@@ -12983,13 +13022,13 @@
         <v>25</v>
       </c>
       <c r="E246" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F246" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G246" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H246" s="25">
         <v>4.8</v>
@@ -13017,8 +13056,8 @@
       <c r="B247" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C247" s="24" t="s">
-        <v>15</v>
+      <c r="C247" s="56" t="s">
+        <v>680</v>
       </c>
       <c r="D247" s="25" t="s">
         <v>69</v>
@@ -13056,7 +13095,7 @@
     <row r="248" spans="1:15" ht="22.5" customHeight="1">
       <c r="A248" s="22"/>
       <c r="B248" s="23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C248" s="24" t="s">
         <v>29</v>
@@ -13065,13 +13104,13 @@
         <v>21</v>
       </c>
       <c r="E248" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F248" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G248" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H248" s="25">
         <v>0.6</v>
@@ -13097,7 +13136,7 @@
     <row r="249" spans="1:15" ht="22.5" customHeight="1">
       <c r="A249" s="22"/>
       <c r="B249" s="23" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C249" s="24" t="s">
         <v>29</v>
@@ -13106,7 +13145,7 @@
         <v>25</v>
       </c>
       <c r="E249" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F249" s="27" t="s">
         <v>74</v>
@@ -13136,7 +13175,7 @@
     <row r="250" spans="1:15" ht="22.5" customHeight="1">
       <c r="A250" s="22"/>
       <c r="B250" s="23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C250" s="24" t="s">
         <v>29</v>
@@ -13145,13 +13184,13 @@
         <v>44</v>
       </c>
       <c r="E250" s="26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F250" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G250" s="28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H250" s="25">
         <v>0.6</v>
@@ -13177,7 +13216,7 @@
     <row r="251" spans="1:15" ht="22.5" customHeight="1">
       <c r="A251" s="22"/>
       <c r="B251" s="23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C251" s="24" t="s">
         <v>29</v>
@@ -13214,7 +13253,7 @@
     <row r="252" spans="1:15" ht="22.5" customHeight="1">
       <c r="A252" s="22"/>
       <c r="B252" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C252" s="24" t="s">
         <v>15</v>
@@ -13223,13 +13262,13 @@
         <v>44</v>
       </c>
       <c r="E252" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F252" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G252" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H252" s="25">
         <v>4.2</v>
@@ -13255,7 +13294,7 @@
     <row r="253" spans="1:15" ht="22.5" customHeight="1">
       <c r="A253" s="22"/>
       <c r="B253" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C253" s="24" t="s">
         <v>15</v>
@@ -13264,13 +13303,13 @@
         <v>69</v>
       </c>
       <c r="E253" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F253" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G253" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H253" s="25">
         <v>4.2</v>
@@ -13296,7 +13335,7 @@
     <row r="254" spans="1:15" ht="22.5" customHeight="1">
       <c r="A254" s="22"/>
       <c r="B254" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C254" s="24" t="s">
         <v>15</v>
@@ -13374,7 +13413,7 @@
     <row r="256" spans="1:15" ht="22.5" customHeight="1">
       <c r="A256" s="22"/>
       <c r="B256" s="23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C256" s="24" t="s">
         <v>29</v>
@@ -13383,13 +13422,13 @@
         <v>25</v>
       </c>
       <c r="E256" s="26" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F256" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G256" s="28" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H256" s="25">
         <v>0.6</v>
@@ -13415,7 +13454,7 @@
     <row r="257" spans="1:15" ht="22.5" customHeight="1">
       <c r="A257" s="22"/>
       <c r="B257" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C257" s="24" t="s">
         <v>29</v>
@@ -13424,7 +13463,7 @@
         <v>44</v>
       </c>
       <c r="E257" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F257" s="27" t="s">
         <v>74</v>
@@ -13454,7 +13493,7 @@
     <row r="258" spans="1:15" ht="22.5" customHeight="1">
       <c r="A258" s="22"/>
       <c r="B258" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C258" s="24" t="s">
         <v>15</v>
@@ -13463,13 +13502,13 @@
         <v>44</v>
       </c>
       <c r="E258" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F258" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G258" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H258" s="25">
         <v>1.1000000000000001</v>
@@ -13490,29 +13529,29 @@
         <v>1</v>
       </c>
       <c r="N258" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O258" s="30"/>
     </row>
     <row r="259" spans="1:15" ht="22.5" customHeight="1">
       <c r="A259" s="22"/>
       <c r="B259" s="23" t="s">
-        <v>573</v>
-      </c>
-      <c r="C259" s="24" t="s">
-        <v>552</v>
+        <v>571</v>
+      </c>
+      <c r="C259" s="56" t="s">
+        <v>682</v>
       </c>
       <c r="D259" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E259" s="26" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F259" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G259" s="28" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H259" s="25">
         <v>0.6</v>
@@ -13538,7 +13577,7 @@
     <row r="260" spans="1:15" ht="22.5" customHeight="1">
       <c r="A260" s="22"/>
       <c r="B260" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C260" s="24" t="s">
         <v>29</v>
@@ -13547,13 +13586,13 @@
         <v>69</v>
       </c>
       <c r="E260" s="26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F260" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G260" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H260" s="25">
         <v>1.2</v>
@@ -13579,7 +13618,7 @@
     <row r="261" spans="1:15" ht="22.5" customHeight="1">
       <c r="A261" s="22"/>
       <c r="B261" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C261" s="24" t="s">
         <v>15</v>
@@ -13594,7 +13633,7 @@
         <v>18</v>
       </c>
       <c r="G261" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H261" s="25">
         <v>2.4</v>
@@ -13620,7 +13659,7 @@
     <row r="262" spans="1:15" ht="22.5" customHeight="1">
       <c r="A262" s="22"/>
       <c r="B262" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C262" s="24" t="s">
         <v>15</v>
@@ -13629,13 +13668,13 @@
         <v>21</v>
       </c>
       <c r="E262" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="F262" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G262" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="F262" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G262" s="28" t="s">
-        <v>237</v>
       </c>
       <c r="H262" s="25">
         <v>4.8</v>
@@ -13661,7 +13700,7 @@
     <row r="263" spans="1:15" ht="22.5" customHeight="1">
       <c r="A263" s="22"/>
       <c r="B263" s="23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C263" s="24" t="s">
         <v>29</v>
@@ -13670,13 +13709,13 @@
         <v>44</v>
       </c>
       <c r="E263" s="26" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G263" s="28" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H263" s="25">
         <v>0.6</v>
@@ -13702,7 +13741,7 @@
     <row r="264" spans="1:15" ht="22.5" customHeight="1">
       <c r="A264" s="22"/>
       <c r="B264" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C264" s="24" t="s">
         <v>15</v>
@@ -13711,13 +13750,13 @@
         <v>69</v>
       </c>
       <c r="E264" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F264" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G264" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H264" s="25">
         <v>7.2</v>
@@ -13743,7 +13782,7 @@
     <row r="265" spans="1:15" ht="22.5" customHeight="1">
       <c r="A265" s="22"/>
       <c r="B265" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C265" s="24" t="s">
         <v>15</v>
@@ -13782,7 +13821,7 @@
     <row r="266" spans="1:15" ht="22.5" customHeight="1">
       <c r="A266" s="22"/>
       <c r="B266" s="23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C266" s="24" t="s">
         <v>29</v>
@@ -13791,13 +13830,13 @@
         <v>21</v>
       </c>
       <c r="E266" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F266" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G266" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H266" s="25">
         <v>0.6</v>
@@ -13823,7 +13862,7 @@
     <row r="267" spans="1:15" ht="22.5" customHeight="1">
       <c r="A267" s="22"/>
       <c r="B267" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C267" s="24" t="s">
         <v>29</v>
@@ -13832,13 +13871,13 @@
         <v>25</v>
       </c>
       <c r="E267" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F267" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G267" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H267" s="25">
         <v>1.2</v>
@@ -13864,7 +13903,7 @@
     <row r="268" spans="1:15" ht="22.5" customHeight="1">
       <c r="A268" s="22"/>
       <c r="B268" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C268" s="24" t="s">
         <v>29</v>
@@ -13873,13 +13912,13 @@
         <v>44</v>
       </c>
       <c r="E268" s="26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F268" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G268" s="28" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H268" s="25">
         <v>0.6</v>
@@ -13905,7 +13944,7 @@
     <row r="269" spans="1:15" ht="22.5" customHeight="1">
       <c r="A269" s="22"/>
       <c r="B269" s="23" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C269" s="24" t="s">
         <v>29</v>
@@ -13914,13 +13953,13 @@
         <v>44</v>
       </c>
       <c r="E269" s="26" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F269" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G269" s="28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H269" s="25">
         <v>0.6</v>
@@ -13946,7 +13985,7 @@
     <row r="270" spans="1:15" ht="22.5" customHeight="1">
       <c r="A270" s="22"/>
       <c r="B270" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C270" s="24" t="s">
         <v>15</v>
@@ -13983,7 +14022,7 @@
     <row r="271" spans="1:15" ht="22.5" customHeight="1">
       <c r="A271" s="22"/>
       <c r="B271" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C271" s="24" t="s">
         <v>15</v>
@@ -14020,7 +14059,7 @@
     <row r="272" spans="1:15" ht="22.5" customHeight="1">
       <c r="A272" s="22"/>
       <c r="B272" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C272" s="24" t="s">
         <v>15</v>
@@ -14054,14 +14093,14 @@
         <v>0</v>
       </c>
       <c r="N272" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O272" s="30"/>
     </row>
     <row r="273" spans="1:15" ht="22.5" customHeight="1">
       <c r="A273" s="22"/>
       <c r="B273" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C273" s="24" t="s">
         <v>29</v>
@@ -14070,13 +14109,13 @@
         <v>25</v>
       </c>
       <c r="E273" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F273" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G273" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H273" s="25">
         <v>1.8</v>
@@ -14102,7 +14141,7 @@
     <row r="274" spans="1:15" ht="22.5" customHeight="1">
       <c r="A274" s="22"/>
       <c r="B274" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C274" s="24" t="s">
         <v>15</v>
@@ -14111,13 +14150,13 @@
         <v>44</v>
       </c>
       <c r="E274" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F274" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G274" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H274" s="25">
         <v>1.1000000000000001</v>
@@ -14138,14 +14177,14 @@
         <v>0</v>
       </c>
       <c r="N274" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O274" s="30"/>
     </row>
     <row r="275" spans="1:15" ht="22.5" customHeight="1">
       <c r="A275" s="22"/>
       <c r="B275" s="23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C275" s="24" t="s">
         <v>29</v>
@@ -14154,7 +14193,7 @@
         <v>44</v>
       </c>
       <c r="E275" s="26" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F275" s="27" t="s">
         <v>31</v>
@@ -14184,7 +14223,7 @@
     <row r="276" spans="1:15" ht="22.5" customHeight="1">
       <c r="A276" s="22"/>
       <c r="B276" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C276" s="24" t="s">
         <v>15</v>
@@ -14193,7 +14232,7 @@
         <v>44</v>
       </c>
       <c r="E276" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F276" s="27" t="s">
         <v>31</v>
@@ -14223,7 +14262,7 @@
     <row r="277" spans="1:15" ht="22.5" customHeight="1">
       <c r="A277" s="22"/>
       <c r="B277" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C277" s="24" t="s">
         <v>15</v>
@@ -14232,13 +14271,13 @@
         <v>44</v>
       </c>
       <c r="E277" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F277" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G277" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H277" s="25">
         <v>4.8</v>
@@ -14264,7 +14303,7 @@
     <row r="278" spans="1:15" ht="22.5" customHeight="1">
       <c r="A278" s="22"/>
       <c r="B278" s="23" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C278" s="24" t="s">
         <v>29</v>
@@ -14428,8 +14467,8 @@
       <c r="B282" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C282" s="24" t="s">
-        <v>15</v>
+      <c r="C282" s="56" t="s">
+        <v>680</v>
       </c>
       <c r="D282" s="25" t="s">
         <v>21</v>
@@ -14465,22 +14504,22 @@
     <row r="283" spans="1:15" ht="22.5" customHeight="1">
       <c r="A283" s="22"/>
       <c r="B283" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C283" s="24" t="s">
-        <v>15</v>
+        <v>183</v>
+      </c>
+      <c r="C283" s="56" t="s">
+        <v>683</v>
       </c>
       <c r="D283" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E283" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F283" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G283" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H283" s="25">
         <v>6</v>
@@ -14547,7 +14586,7 @@
     <row r="285" spans="1:15" ht="22.5" customHeight="1">
       <c r="A285" s="22"/>
       <c r="B285" s="23" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C285" s="24" t="s">
         <v>29</v>
@@ -14556,13 +14595,13 @@
         <v>25</v>
       </c>
       <c r="E285" s="26" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F285" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G285" s="28" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H285" s="25">
         <v>0.6</v>
@@ -14588,7 +14627,7 @@
     <row r="286" spans="1:15" ht="22.5" customHeight="1">
       <c r="A286" s="22"/>
       <c r="B286" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C286" s="24" t="s">
         <v>29</v>
@@ -14597,13 +14636,13 @@
         <v>21</v>
       </c>
       <c r="E286" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F286" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G286" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H286" s="25">
         <v>3</v>
@@ -14624,14 +14663,14 @@
         <v>4</v>
       </c>
       <c r="N286" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O286" s="30"/>
     </row>
     <row r="287" spans="1:15" ht="22.5" customHeight="1">
       <c r="A287" s="22"/>
       <c r="B287" s="23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C287" s="24" t="s">
         <v>29</v>
@@ -14640,13 +14679,13 @@
         <v>44</v>
       </c>
       <c r="E287" s="26" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F287" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G287" s="28" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H287" s="25">
         <v>0.6</v>
@@ -14672,7 +14711,7 @@
     <row r="288" spans="1:15" ht="22.5" customHeight="1">
       <c r="A288" s="22"/>
       <c r="B288" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C288" s="24" t="s">
         <v>29</v>
@@ -14684,10 +14723,10 @@
         <v>26</v>
       </c>
       <c r="F288" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G288" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H288" s="25">
         <v>5.3</v>
@@ -14708,14 +14747,14 @@
         <v>0</v>
       </c>
       <c r="N288" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O288" s="30"/>
     </row>
     <row r="289" spans="1:15" ht="22.5" customHeight="1">
       <c r="A289" s="22"/>
       <c r="B289" s="23" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C289" s="24" t="s">
         <v>29</v>
@@ -14724,13 +14763,13 @@
         <v>44</v>
       </c>
       <c r="E289" s="26" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F289" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G289" s="28" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H289" s="25">
         <v>0.6</v>
@@ -14756,7 +14795,7 @@
     <row r="290" spans="1:15" ht="22.5" customHeight="1">
       <c r="A290" s="22"/>
       <c r="B290" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C290" s="24" t="s">
         <v>29</v>
@@ -14765,13 +14804,13 @@
         <v>44</v>
       </c>
       <c r="E290" s="26" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F290" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G290" s="28" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H290" s="25">
         <v>0.6</v>
@@ -14797,7 +14836,7 @@
     <row r="291" spans="1:15" ht="22.5" customHeight="1">
       <c r="A291" s="22"/>
       <c r="B291" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C291" s="24" t="s">
         <v>29</v>
@@ -14809,7 +14848,7 @@
         <v>116</v>
       </c>
       <c r="F291" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G291" s="28" t="s">
         <v>116</v>
@@ -14840,8 +14879,8 @@
       <c r="B292" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C292" s="24" t="s">
-        <v>15</v>
+      <c r="C292" s="56" t="s">
+        <v>680</v>
       </c>
       <c r="D292" s="25" t="s">
         <v>16</v>
@@ -14914,7 +14953,7 @@
     <row r="294" spans="1:15" ht="22.5" customHeight="1">
       <c r="A294" s="22"/>
       <c r="B294" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C294" s="24" t="s">
         <v>29</v>
@@ -14923,7 +14962,7 @@
         <v>44</v>
       </c>
       <c r="E294" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F294" s="27" t="s">
         <v>31</v>
@@ -14953,22 +14992,22 @@
     <row r="295" spans="1:15" ht="22.5" customHeight="1">
       <c r="A295" s="22"/>
       <c r="B295" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C295" s="24" t="s">
-        <v>216</v>
+        <v>369</v>
+      </c>
+      <c r="C295" s="56" t="s">
+        <v>682</v>
       </c>
       <c r="D295" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E295" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F295" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G295" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H295" s="25">
         <v>1.8</v>
@@ -14994,7 +15033,7 @@
     <row r="296" spans="1:15" ht="22.5" customHeight="1">
       <c r="A296" s="22"/>
       <c r="B296" s="23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C296" s="24" t="s">
         <v>29</v>
@@ -15003,7 +15042,7 @@
         <v>21</v>
       </c>
       <c r="E296" s="26" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F296" s="27" t="s">
         <v>18</v>
@@ -15035,7 +15074,7 @@
     <row r="297" spans="1:15" ht="22.5" customHeight="1">
       <c r="A297" s="22"/>
       <c r="B297" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C297" s="24" t="s">
         <v>29</v>
@@ -15044,7 +15083,7 @@
         <v>44</v>
       </c>
       <c r="E297" s="26" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F297" s="27" t="s">
         <v>74</v>
@@ -15074,16 +15113,16 @@
     <row r="298" spans="1:15" ht="22.5" customHeight="1">
       <c r="A298" s="22"/>
       <c r="B298" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C298" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="C298" s="24" t="s">
+      <c r="D298" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E298" s="26" t="s">
         <v>241</v>
-      </c>
-      <c r="D298" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E298" s="26" t="s">
-        <v>242</v>
       </c>
       <c r="F298" s="27"/>
       <c r="G298" s="28"/>
@@ -15111,16 +15150,16 @@
     <row r="299" spans="1:15" ht="22.5" customHeight="1">
       <c r="A299" s="22"/>
       <c r="B299" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C299" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="C299" s="24" t="s">
+      <c r="D299" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E299" s="26" t="s">
         <v>338</v>
-      </c>
-      <c r="D299" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E299" s="26" t="s">
-        <v>339</v>
       </c>
       <c r="F299" s="27"/>
       <c r="G299" s="28"/>
@@ -15148,7 +15187,7 @@
     <row r="300" spans="1:15" ht="22.5" customHeight="1">
       <c r="A300" s="31"/>
       <c r="B300" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C300" s="50" t="s">
         <v>29</v>
@@ -15157,13 +15196,13 @@
         <v>25</v>
       </c>
       <c r="E300" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F300" s="52" t="s">
         <v>18</v>
       </c>
       <c r="G300" s="53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H300" s="49">
         <v>4.8</v>
@@ -15184,14 +15223,14 @@
         <v>2</v>
       </c>
       <c r="N300" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O300" s="30"/>
     </row>
     <row r="301" spans="1:15" ht="22.5" customHeight="1">
       <c r="A301" s="22"/>
       <c r="B301" s="32" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C301" s="32"/>
       <c r="D301" s="32"/>
@@ -15210,10 +15249,10 @@
     <row r="302" spans="1:15" ht="22.5" customHeight="1">
       <c r="A302" s="22"/>
       <c r="B302" s="23" t="s">
-        <v>622</v>
-      </c>
-      <c r="C302" s="24" t="s">
-        <v>85</v>
+        <v>620</v>
+      </c>
+      <c r="C302" s="57" t="s">
+        <v>680</v>
       </c>
       <c r="D302" s="25" t="s">
         <v>25</v>
@@ -15240,17 +15279,17 @@
         <v>0</v>
       </c>
       <c r="N302" s="34" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="O302" s="35"/>
     </row>
     <row r="303" spans="1:15" ht="22.5" customHeight="1">
       <c r="A303" s="22"/>
       <c r="B303" s="23" t="s">
-        <v>624</v>
-      </c>
-      <c r="C303" s="24" t="s">
-        <v>15</v>
+        <v>622</v>
+      </c>
+      <c r="C303" s="56" t="s">
+        <v>681</v>
       </c>
       <c r="D303" s="25" t="s">
         <v>21</v>
@@ -15279,14 +15318,14 @@
         <v>0</v>
       </c>
       <c r="N303" s="34" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="O303" s="35"/>
     </row>
     <row r="304" spans="1:15" ht="22.5" customHeight="1">
       <c r="A304" s="22"/>
       <c r="B304" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C304" s="24" t="s">
         <v>15</v>
@@ -15299,7 +15338,7 @@
         <v>18</v>
       </c>
       <c r="G304" s="28" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H304" s="27">
         <v>6.2</v>
@@ -15320,14 +15359,14 @@
         <v>0</v>
       </c>
       <c r="N304" s="34" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="O304" s="35"/>
     </row>
     <row r="305" spans="1:15" ht="22.5" customHeight="1">
       <c r="A305" s="22"/>
       <c r="B305" s="23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C305" s="24" t="s">
         <v>15</v>
@@ -15361,17 +15400,17 @@
         <v>0</v>
       </c>
       <c r="N305" s="34" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O305" s="35"/>
     </row>
     <row r="306" spans="1:15" ht="22.5" customHeight="1">
       <c r="A306" s="22"/>
       <c r="B306" s="23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C306" s="24" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D306" s="25" t="s">
         <v>25</v>
@@ -15398,24 +15437,24 @@
         <v>0</v>
       </c>
       <c r="N306" s="34" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="O306" s="35"/>
     </row>
     <row r="307" spans="1:15" ht="22.5" customHeight="1">
       <c r="A307" s="22"/>
       <c r="B307" s="23" t="s">
-        <v>634</v>
-      </c>
-      <c r="C307" s="24" t="s">
-        <v>15</v>
+        <v>632</v>
+      </c>
+      <c r="C307" s="56" t="s">
+        <v>680</v>
       </c>
       <c r="D307" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E307" s="26"/>
       <c r="F307" s="27" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G307" s="28"/>
       <c r="H307" s="27">
@@ -15437,17 +15476,17 @@
         <v>2</v>
       </c>
       <c r="N307" s="34" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O307" s="35"/>
     </row>
     <row r="308" spans="1:15" ht="22.5" customHeight="1">
       <c r="A308" s="22"/>
       <c r="B308" s="23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C308" s="24" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D308" s="25" t="s">
         <v>44</v>
@@ -15457,7 +15496,7 @@
         <v>18</v>
       </c>
       <c r="G308" s="28" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H308" s="27">
         <v>0</v>
@@ -15478,24 +15517,24 @@
         <v>1</v>
       </c>
       <c r="N308" s="34" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O308" s="35"/>
     </row>
     <row r="309" spans="1:15" ht="22.5" customHeight="1">
       <c r="A309" s="22"/>
       <c r="B309" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="C309" s="24" t="s">
-        <v>15</v>
+        <v>638</v>
+      </c>
+      <c r="C309" s="56" t="s">
+        <v>680</v>
       </c>
       <c r="D309" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E309" s="26"/>
       <c r="F309" s="27" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G309" s="28"/>
       <c r="H309" s="27">
@@ -15517,14 +15556,14 @@
         <v>0</v>
       </c>
       <c r="N309" s="34" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O309" s="35"/>
     </row>
     <row r="310" spans="1:15" ht="22.5" customHeight="1">
       <c r="A310" s="22"/>
       <c r="B310" s="23" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C310" s="24" t="s">
         <v>29</v>
@@ -15554,14 +15593,14 @@
         <v>0</v>
       </c>
       <c r="N310" s="34" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O310" s="35"/>
     </row>
     <row r="311" spans="1:15" ht="22.5" customHeight="1">
       <c r="A311" s="22"/>
       <c r="B311" s="23" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C311" s="24" t="s">
         <v>15</v>
@@ -15571,7 +15610,7 @@
       </c>
       <c r="E311" s="26"/>
       <c r="F311" s="27" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G311" s="28"/>
       <c r="H311" s="27">
@@ -15593,14 +15632,14 @@
         <v>1</v>
       </c>
       <c r="N311" s="34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="O311" s="35"/>
     </row>
     <row r="312" spans="1:15" ht="22.5" customHeight="1">
       <c r="A312" s="22"/>
       <c r="B312" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C312" s="24" t="s">
         <v>29</v>
@@ -15610,7 +15649,7 @@
       </c>
       <c r="E312" s="26"/>
       <c r="F312" s="27" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G312" s="28"/>
       <c r="H312" s="27">
@@ -15632,14 +15671,14 @@
         <v>0</v>
       </c>
       <c r="N312" s="34" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O312" s="35"/>
     </row>
     <row r="313" spans="1:15" ht="22.5" customHeight="1">
       <c r="A313" s="22"/>
       <c r="B313" s="23" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C313" s="24" t="s">
         <v>15</v>
@@ -15652,7 +15691,7 @@
         <v>18</v>
       </c>
       <c r="G313" s="28" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H313" s="27">
         <v>17.5</v>
@@ -15673,14 +15712,14 @@
         <v>0</v>
       </c>
       <c r="N313" s="34" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="O313" s="35"/>
     </row>
     <row r="314" spans="1:15" ht="22.5" customHeight="1">
       <c r="A314" s="22"/>
       <c r="B314" s="23" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C314" s="24" t="s">
         <v>29</v>
@@ -15693,7 +15732,7 @@
         <v>18</v>
       </c>
       <c r="G314" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H314" s="27">
         <v>13.6</v>
@@ -15714,14 +15753,14 @@
         <v>0</v>
       </c>
       <c r="N314" s="34" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O314" s="35"/>
     </row>
     <row r="315" spans="1:15" ht="22.5" customHeight="1">
       <c r="A315" s="22"/>
       <c r="B315" s="23" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C315" s="24" t="s">
         <v>29</v>
@@ -15731,7 +15770,7 @@
       </c>
       <c r="E315" s="26"/>
       <c r="F315" s="27" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G315" s="28"/>
       <c r="H315" s="27">
@@ -15753,14 +15792,14 @@
         <v>2</v>
       </c>
       <c r="N315" s="34" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O315" s="35"/>
     </row>
     <row r="316" spans="1:15" ht="22.5" customHeight="1">
       <c r="A316" s="22"/>
       <c r="B316" s="23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C316" s="24" t="s">
         <v>29</v>
@@ -15773,7 +15812,7 @@
         <v>18</v>
       </c>
       <c r="G316" s="28" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H316" s="27">
         <v>27.7</v>
@@ -15794,14 +15833,14 @@
         <v>0</v>
       </c>
       <c r="N316" s="34" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="O316" s="35"/>
     </row>
     <row r="317" spans="1:15" ht="22.5" customHeight="1">
       <c r="A317" s="22"/>
       <c r="B317" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C317" s="24" t="s">
         <v>85</v>
@@ -15811,7 +15850,7 @@
       </c>
       <c r="E317" s="26"/>
       <c r="F317" s="27" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G317" s="28"/>
       <c r="H317" s="27">
@@ -15833,14 +15872,14 @@
         <v>0</v>
       </c>
       <c r="N317" s="34" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="O317" s="35"/>
     </row>
     <row r="318" spans="1:15" ht="22.5" customHeight="1">
       <c r="A318" s="22"/>
       <c r="B318" s="23" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C318" s="24" t="s">
         <v>15</v>
@@ -15872,17 +15911,17 @@
         <v>0</v>
       </c>
       <c r="N318" s="34" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="O318" s="35"/>
     </row>
     <row r="319" spans="1:15" ht="22.5" customHeight="1">
       <c r="A319" s="22"/>
       <c r="B319" s="23" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C319" s="24" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D319" s="25" t="s">
         <v>44</v>
@@ -15909,14 +15948,14 @@
         <v>4</v>
       </c>
       <c r="N319" s="34" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O319" s="35"/>
     </row>
     <row r="320" spans="1:15" ht="13.2">
       <c r="A320" s="22"/>
       <c r="B320" s="23" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C320" s="24" t="s">
         <v>29</v>
@@ -15926,7 +15965,7 @@
       </c>
       <c r="E320" s="26"/>
       <c r="F320" s="27" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G320" s="28"/>
       <c r="H320" s="27">
@@ -15948,14 +15987,14 @@
         <v>1</v>
       </c>
       <c r="N320" s="34" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="O320" s="35"/>
     </row>
     <row r="321" spans="1:15" ht="22.5" customHeight="1">
       <c r="A321" s="22"/>
       <c r="B321" s="23" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C321" s="24" t="s">
         <v>29</v>
@@ -15965,7 +16004,7 @@
       </c>
       <c r="E321" s="26"/>
       <c r="F321" s="27" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G321" s="28"/>
       <c r="H321" s="27">
@@ -15987,14 +16026,14 @@
         <v>0</v>
       </c>
       <c r="N321" s="34" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="O321" s="35"/>
     </row>
     <row r="322" spans="1:15" ht="22.5" customHeight="1">
       <c r="A322" s="22"/>
       <c r="B322" s="23" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C322" s="24" t="s">
         <v>15</v>
@@ -16004,7 +16043,7 @@
       </c>
       <c r="E322" s="26"/>
       <c r="F322" s="27" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G322" s="28"/>
       <c r="H322" s="27">
@@ -16026,24 +16065,24 @@
         <v>0</v>
       </c>
       <c r="N322" s="34" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="O322" s="35"/>
     </row>
     <row r="323" spans="1:15" ht="22.5" customHeight="1">
       <c r="A323" s="22"/>
       <c r="B323" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="C323" s="24" t="s">
-        <v>85</v>
+        <v>668</v>
+      </c>
+      <c r="C323" s="56" t="s">
+        <v>683</v>
       </c>
       <c r="D323" s="25" t="s">
         <v>44</v>
       </c>
       <c r="E323" s="26"/>
       <c r="F323" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G323" s="28"/>
       <c r="H323" s="27">
@@ -16065,14 +16104,14 @@
         <v>2</v>
       </c>
       <c r="N323" s="34" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="O323" s="35"/>
     </row>
     <row r="324" spans="1:15" ht="22.5" customHeight="1">
       <c r="A324" s="22"/>
       <c r="B324" s="23" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C324" s="24" t="s">
         <v>29</v>
@@ -16082,7 +16121,7 @@
       </c>
       <c r="E324" s="26"/>
       <c r="F324" s="27" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G324" s="28"/>
       <c r="H324" s="27">
@@ -16104,14 +16143,14 @@
         <v>1</v>
       </c>
       <c r="N324" s="34" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="O324" s="35"/>
     </row>
     <row r="325" spans="1:15" ht="22.5" customHeight="1">
       <c r="A325" s="22"/>
       <c r="B325" s="23" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C325" s="24" t="s">
         <v>15</v>
@@ -16124,7 +16163,7 @@
         <v>18</v>
       </c>
       <c r="G325" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H325" s="27">
         <v>6.3</v>
@@ -16145,14 +16184,14 @@
         <v>3</v>
       </c>
       <c r="N325" s="34" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="O325" s="35"/>
     </row>
     <row r="326" spans="1:15" ht="13.2">
       <c r="A326" s="43"/>
       <c r="B326" s="36" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C326" s="37" t="s">
         <v>15</v>
@@ -16162,7 +16201,7 @@
       </c>
       <c r="E326" s="39"/>
       <c r="F326" s="40" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G326" s="41"/>
       <c r="H326" s="40">
@@ -16184,7 +16223,7 @@
         <v>0</v>
       </c>
       <c r="N326" s="42" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O326" s="48"/>
     </row>
@@ -16207,7 +16246,7 @@
   <customSheetViews>
     <customSheetView guid="{58289E00-05E9-4367-9B8B-30D40BD4D28E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="C3:N6" xr:uid="{5C76305B-119C-4834-93B5-F17478009BBA}"/>
+      <autoFilter ref="C3:N6" xr:uid="{C366AF80-F9AA-4A7D-8DB9-E8C91885D500}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="19" type="noConversion"/>
